--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,355 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Avaliado</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Avaliador</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Rafaela Carvalho</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mariana Arezes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Inês Bastos</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>6</v>
-      </c>
-      <c r="N6" t="n">
-        <v>5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>5</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>6</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,14 +413,771 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" ht="217.2" customHeight="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="22.8" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="21.6" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="22.8" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.2" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="22.8" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="24" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="21.6" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="22.8" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.6" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="22.8" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="19.2" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="22.8" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="16.8" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="24" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="24" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="24" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="22.8" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="24" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="22.8" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="22.8" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="24" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15.6" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,565 +421,765 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="217.2" customHeight="1">
+    <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Titulo qualquer</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Avaliador</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="22.8" customHeight="1">
-      <c r="A2" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="24" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="21.6" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="22.8" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="19.2" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="22.8" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="24" customHeight="1">
-      <c r="A9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="21.6" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="22.8" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="22.8" customHeight="1">
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="24" customHeight="1">
-      <c r="A15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="19.2" customHeight="1">
-      <c r="A16" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="22.8" customHeight="1">
-      <c r="A17" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="24" customHeight="1">
-      <c r="A18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="16.8" customHeight="1">
-      <c r="A19" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="24" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="24" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -987,53 +1187,73 @@
           <t>5</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="24" customHeight="1">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="22.8" customHeight="1">
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1041,11 +1261,21 @@
           <t>6</t>
         </is>
       </c>
-    </row>
-    <row r="24" ht="24" customHeight="1">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1055,12 +1285,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1068,110 +1298,271 @@
           <t>4</t>
         </is>
       </c>
-    </row>
-    <row r="25" ht="22.8" customHeight="1">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="22.8" customHeight="1">
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="24" customHeight="1">
-      <c r="A27" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" t="inlineStr">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>5</t>
         </is>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,11 +449,6 @@
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -476,38 +471,12 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -520,48 +489,17 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -569,38 +507,12 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="8"/>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -618,43 +530,17 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="10"/>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -662,87 +548,30 @@
           <t>5</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="12"/>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14"/>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -757,90 +586,33 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="18"/>
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -850,41 +622,15 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="20"/>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -902,38 +648,12 @@
           <t>6</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+    </row>
+    <row r="22"/>
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -943,90 +663,33 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
     <row r="25">
       <c r="C25" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Inês Bastos</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1041,184 +704,380 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28"/>
     <row r="29">
       <c r="C29" t="inlineStr">
         <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32"/>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="36"/>
+    <row r="37">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42"/>
+    <row r="43">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46"/>
+    <row r="47">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="48"/>
+    <row r="49">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50"/>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="54"/>
+    <row r="55">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="56"/>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="G26"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="E16"/>
-    <mergeCell ref="G16"/>
-    <mergeCell ref="F14"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="G17"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="A27:B29"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="G19"/>
-    <mergeCell ref="E28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="G28"/>
-    <mergeCell ref="G6"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G14"/>
-    <mergeCell ref="F27"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A9:B11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F29"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="F25"/>
-    <mergeCell ref="E24"/>
-    <mergeCell ref="G27"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="E17"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="F15"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="G18"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="C18:D18"/>
+  <mergeCells count="95">
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="A3:B8"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A21:B26"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="C49:D50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A15:B20"/>
+    <mergeCell ref="A51:B56"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="E2"/>
-    <mergeCell ref="F13"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="A24:B26"/>
-    <mergeCell ref="G20"/>
-    <mergeCell ref="G29"/>
-    <mergeCell ref="E22"/>
-    <mergeCell ref="G22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="G12"/>
-    <mergeCell ref="E21"/>
-    <mergeCell ref="G21"/>
-    <mergeCell ref="F19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="F6"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="E23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="G23"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="G7"/>
-    <mergeCell ref="F20"/>
-    <mergeCell ref="A12:B14"/>
-    <mergeCell ref="A21:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F28"/>
-    <mergeCell ref="E27"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A15:B17"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="G25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="G11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="A27:B32"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A33:B38"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A9:B14"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="A39:B44"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A45:B50"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C3:D4"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F7"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E20"/>
-    <mergeCell ref="A18:B20"/>
-    <mergeCell ref="E29"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="F18"/>
-    <mergeCell ref="G13"/>
-    <mergeCell ref="F8"/>
+    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="F2"/>
-    <mergeCell ref="F17"/>
-    <mergeCell ref="E15"/>
-    <mergeCell ref="G15"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G24"/>
-    <mergeCell ref="F22"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E37:E38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Titulo qualquer</t>
+          <t>Avaliação de desempenho</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
           <t>Avaliador</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
@@ -456,17 +456,17 @@
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -474,17 +474,17 @@
     </row>
     <row r="4"/>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -492,17 +492,17 @@
     </row>
     <row r="6"/>
     <row r="7">
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -515,17 +515,17 @@
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -533,17 +533,17 @@
     </row>
     <row r="10"/>
     <row r="11">
-      <c r="C11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -551,17 +551,17 @@
     </row>
     <row r="12"/>
     <row r="13">
-      <c r="C13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -574,17 +574,17 @@
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -592,17 +592,17 @@
     </row>
     <row r="16"/>
     <row r="17">
-      <c r="C17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -610,17 +610,17 @@
     </row>
     <row r="18"/>
     <row r="19">
-      <c r="C19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -633,17 +633,17 @@
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -651,17 +651,17 @@
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -669,17 +669,17 @@
     </row>
     <row r="24"/>
     <row r="25">
-      <c r="C25" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -692,17 +692,17 @@
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -710,17 +710,17 @@
     </row>
     <row r="28"/>
     <row r="29">
-      <c r="C29" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -728,17 +728,17 @@
     </row>
     <row r="30"/>
     <row r="31">
-      <c r="C31" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -751,17 +751,17 @@
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -769,17 +769,17 @@
     </row>
     <row r="34"/>
     <row r="35">
-      <c r="C35" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -787,17 +787,17 @@
     </row>
     <row r="36"/>
     <row r="37">
-      <c r="C37" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -810,17 +810,17 @@
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -828,17 +828,17 @@
     </row>
     <row r="40"/>
     <row r="41">
-      <c r="C41" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -846,17 +846,17 @@
     </row>
     <row r="42"/>
     <row r="43">
-      <c r="C43" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -869,17 +869,17 @@
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -887,17 +887,17 @@
     </row>
     <row r="46"/>
     <row r="47">
-      <c r="C47" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -905,17 +905,17 @@
     </row>
     <row r="48"/>
     <row r="49">
-      <c r="C49" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -928,17 +928,17 @@
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
         <is>
           <t>6</t>
         </is>
@@ -946,17 +946,17 @@
     </row>
     <row r="52"/>
     <row r="53">
-      <c r="C53" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -964,17 +964,17 @@
     </row>
     <row r="54"/>
     <row r="55">
-      <c r="C55" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -983,101 +983,101 @@
     <row r="56"/>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="C47:D48"/>
     <mergeCell ref="E39:E40"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="A3:B8"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A21:B26"/>
-    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D47:D48"/>
     <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="C49:D50"/>
-    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B21:C22"/>
     <mergeCell ref="E41:E42"/>
-    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="A33:A38"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A39:A44"/>
     <mergeCell ref="E55:E56"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B49:C50"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B33:C34"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A15:B20"/>
-    <mergeCell ref="A51:B56"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B47:C48"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A2"/>
+    <mergeCell ref="B23:C24"/>
     <mergeCell ref="E2"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="B39:C40"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="E51:E52"/>
-    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="B15:C16"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="A27:B32"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A33:B38"/>
-    <mergeCell ref="F17:F18"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B51:C52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B41:C42"/>
+    <mergeCell ref="B35:C36"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A9:B14"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A39:B44"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="D31:D32"/>
     <mergeCell ref="E43:E44"/>
+    <mergeCell ref="B13:C14"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A45:B50"/>
-    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A15:A20"/>
     <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B53:C54"/>
+    <mergeCell ref="A51:A56"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C17:D18"/>
     <mergeCell ref="E35:E36"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B45:C46"/>
     <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D6"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B31:C32"/>
     <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D19:D20"/>
     <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F19:F20"/>
     <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="B11:C12"/>
     <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D35:D36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,81 +434,169 @@
           <t>Avaliador</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Avaliado</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Avaliado</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8"/>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
@@ -517,40 +605,101 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12"/>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
@@ -558,138 +707,344 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14"/>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="16"/>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="18"/>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20"/>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="22"/>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="24"/>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -699,385 +1054,262 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28"/>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="30"/>
-    <row r="31">
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31"/>
     <row r="32"/>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    <row r="33"/>
     <row r="34"/>
-    <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="35"/>
     <row r="36"/>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="37"/>
     <row r="38"/>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    <row r="39"/>
     <row r="40"/>
-    <row r="41">
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="41"/>
     <row r="42"/>
-    <row r="43">
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    <row r="43"/>
     <row r="44"/>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    <row r="45"/>
     <row r="46"/>
-    <row r="47">
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="47"/>
     <row r="48"/>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="49"/>
     <row r="50"/>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Inês Bastos</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
+    <row r="51"/>
     <row r="52"/>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
+    <row r="53"/>
     <row r="54"/>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
+    <row r="55"/>
     <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B49:C50"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B33:C34"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B47:C48"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A2"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="E2"/>
-    <mergeCell ref="B39:C40"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="B15:C16"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B51:C52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B41:C42"/>
-    <mergeCell ref="B35:C36"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B3:C4"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B53:C54"/>
-    <mergeCell ref="A51:A56"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D35:D36"/>
+  <mergeCells count="113">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A77"/>
+    <mergeCell ref="A83"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="A69"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A84"/>
+    <mergeCell ref="A66"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A75"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="A50"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="A86"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A32"/>
+    <mergeCell ref="A29"/>
+    <mergeCell ref="A81"/>
+    <mergeCell ref="A38"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A44"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A15"/>
+    <mergeCell ref="A24"/>
+    <mergeCell ref="A51"/>
+    <mergeCell ref="A60"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="A27"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A18"/>
+    <mergeCell ref="A42"/>
+    <mergeCell ref="A47"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="A35"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A62"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="A20"/>
+    <mergeCell ref="A72"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A48"/>
+    <mergeCell ref="A30"/>
+    <mergeCell ref="A59"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A54"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A74"/>
+    <mergeCell ref="A56"/>
+    <mergeCell ref="A26"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="A71"/>
+    <mergeCell ref="A33"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="A8"/>
+    <mergeCell ref="A17"/>
+    <mergeCell ref="A53"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A63"/>
+    <mergeCell ref="A68"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="A9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A39"/>
+    <mergeCell ref="A36"/>
+    <mergeCell ref="A11"/>
+    <mergeCell ref="A45"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A78"/>
+    <mergeCell ref="A87"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A65"/>
+    <mergeCell ref="A80"/>
+    <mergeCell ref="A12"/>
+    <mergeCell ref="A21"/>
+    <mergeCell ref="A57"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A14"/>
+    <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
           <t>Avaliador</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Avaliado</t>
@@ -456,6 +461,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Avaliador</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Avaliado</t>
@@ -478,120 +488,105 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>5</v>
@@ -600,12 +595,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
+          <t>Rafaela Carvalho</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -614,7 +604,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" t="n">
         <v>5</v>
@@ -623,12 +613,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -646,49 +631,39 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
@@ -697,211 +672,191 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Mariana Arezes</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mariana Arezes</t>
-        </is>
-      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Paulo Vieira</t>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -913,18 +868,18 @@
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -942,114 +897,84 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>6</v>
       </c>
       <c r="F25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1058,21 +983,16 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Inês Bastos</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Inês Bastos</t>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1084,87 +1004,626 @@
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>6</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>6</v>
+      </c>
+      <c r="F46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>4</v>
+      </c>
+      <c r="F49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+      <c r="F51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
+        <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="E52" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>6</v>
+      </c>
+      <c r="F53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="58"/>
     <row r="59"/>
     <row r="60"/>
@@ -1195,121 +1654,168 @@
     <row r="85"/>
     <row r="86"/>
     <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A77"/>
-    <mergeCell ref="A83"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="A69"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A84"/>
-    <mergeCell ref="A66"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A75"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="A50"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="A86"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A32"/>
-    <mergeCell ref="A29"/>
-    <mergeCell ref="A81"/>
-    <mergeCell ref="A38"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A44"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A15"/>
-    <mergeCell ref="A24"/>
-    <mergeCell ref="A51"/>
-    <mergeCell ref="A60"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="A27"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A18"/>
-    <mergeCell ref="A42"/>
-    <mergeCell ref="A47"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A35"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A62"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="A20"/>
-    <mergeCell ref="A72"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A48"/>
-    <mergeCell ref="A30"/>
-    <mergeCell ref="A59"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="A54"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A74"/>
-    <mergeCell ref="A56"/>
-    <mergeCell ref="A26"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="G1:H1"/>
+  <mergeCells count="95">
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="A139:B140"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="B55:C58"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A107:B108"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B71:C74"/>
+    <mergeCell ref="A75:B76"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="B23:C26"/>
+    <mergeCell ref="C115:D116"/>
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="C99:D100"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="C67:D68"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A123:B124"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="B119:C122"/>
+    <mergeCell ref="C111:D112"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="C147:D148"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A93:A94"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="A71"/>
-    <mergeCell ref="A33"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="A8"/>
-    <mergeCell ref="A17"/>
-    <mergeCell ref="A53"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A63"/>
-    <mergeCell ref="A68"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="A9"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A39"/>
-    <mergeCell ref="A36"/>
-    <mergeCell ref="A11"/>
-    <mergeCell ref="A45"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A78"/>
-    <mergeCell ref="A87"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A65"/>
-    <mergeCell ref="A80"/>
-    <mergeCell ref="A12"/>
-    <mergeCell ref="A21"/>
-    <mergeCell ref="A57"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A14"/>
-    <mergeCell ref="A23"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="B39:C42"/>
+    <mergeCell ref="A91:B92"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B103:C106"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="B87:C90"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B135:C138"/>
+    <mergeCell ref="C83:D84"/>
+    <mergeCell ref="A59:B60"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B7:C10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -483,14 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
-      <c r="E7" t="n">
-        <v>5</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="7"/>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
@@ -504,14 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
@@ -544,14 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
-      <c r="E13" t="n">
-        <v>4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="13"/>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
@@ -565,14 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15">
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
@@ -605,14 +577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
-      <c r="E19" t="n">
-        <v>3</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="19"/>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
@@ -626,14 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
-      <c r="E21" t="n">
-        <v>5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
@@ -666,14 +624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25">
-      <c r="E25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
@@ -687,14 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
-      <c r="E27" t="n">
-        <v>6</v>
-      </c>
-      <c r="F27" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="27"/>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
@@ -727,14 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
-      <c r="E31" t="n">
-        <v>5</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="31"/>
     <row r="32">
       <c r="C32" t="inlineStr">
         <is>
@@ -748,14 +685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
-      <c r="E33" t="n">
-        <v>6</v>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-    </row>
+    <row r="33"/>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
@@ -788,14 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37">
-      <c r="E37" t="n">
-        <v>5</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="37"/>
     <row r="38">
       <c r="C38" t="inlineStr">
         <is>
@@ -809,14 +732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39">
-      <c r="E39" t="n">
-        <v>5</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="39"/>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
@@ -849,14 +765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43">
-      <c r="E43" t="n">
-        <v>4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="43"/>
     <row r="44">
       <c r="C44" t="inlineStr">
         <is>
@@ -870,14 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
-      <c r="E45" t="n">
-        <v>6</v>
-      </c>
-      <c r="F45" t="n">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="45"/>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
@@ -910,14 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49">
-      <c r="E49" t="n">
-        <v>4</v>
-      </c>
-      <c r="F49" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="49"/>
     <row r="50">
       <c r="C50" t="inlineStr">
         <is>
@@ -931,14 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51">
-      <c r="E51" t="n">
-        <v>4</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="51"/>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
@@ -971,14 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="55"/>
     <row r="56">
       <c r="C56" t="inlineStr">
         <is>
@@ -992,75 +873,104 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="57"/>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="95">
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:B9"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A40:B45"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F40:F41"/>
     <mergeCell ref="A16:B21"/>
     <mergeCell ref="C12:D13"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C40:D41"/>
     <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F36:F37"/>
     <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="A46:B51"/>
-    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E38:E39"/>
     <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C48:D49"/>
     <mergeCell ref="E46:E47"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A22:B27"/>
     <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="C24:D25"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A34:B39"/>
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="A28:B33"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F52:F53"/>
     <mergeCell ref="F46:F47"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="A40:B45"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="A52:B57"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="C10:D11"/>
     <mergeCell ref="C16:D17"/>
     <mergeCell ref="F4:F5"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A46:B51"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A22:B27"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A34:B39"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A28:B33"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="A10:B15"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="A52:B57"/>
+    <mergeCell ref="C4:D5"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E24:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,91 @@
           <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz planear e organizar de forma eficiente atividades recreativas e/ou formações internas, de forma a que tenham sucesso.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar relatórios de avaliações, de questionários de satisfação, etc., de uma forma clara e eficaz.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3. O membro acompanha as suas tarefas individuais recorrentes (p.ex: aniversários, avaliação motivacional, newsletters, etc.) de forma a confirmar que está tudo sob controlo.</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>4. O membro exibe criatividade durante a elaboração de atividades recreativas, planeamento de Recrutamento e Retiro, iniciativas internas, etc.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5. O membro lida com conflitos internos de uma forma preponderada, tendo em mente o melhor interesse dos membros e a estabilidade da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>6. O membro motiva os outros membros a participarem nas atividades internas da EPIC Júnior, bem como nas externas, da JE ou de outras Júnior Empresas.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>2. O membro respeita o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>3. O membro, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>4. Em tarefas de grupo, o membro é capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
+        </is>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -468,12 +553,126 @@
       <c r="F4" t="n">
         <v>6</v>
       </c>
+      <c r="G4" t="n">
+        <v>6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5"/>
+    <row r="5">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -482,26 +681,259 @@
       <c r="F6" t="n">
         <v>5</v>
       </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="7"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" t="n">
+        <v>6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>4</v>
       </c>
     </row>
-    <row r="9"/>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paula Ferreira</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -515,40 +947,387 @@
       <c r="F10" t="n">
         <v>6</v>
       </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>6</v>
+      </c>
+      <c r="V10" t="n">
+        <v>6</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2</v>
+      </c>
+    </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
         <v>5</v>
       </c>
+      <c r="G12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>6</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13"/>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="n">
+        <v>6</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6</v>
+      </c>
+      <c r="M13" t="n">
+        <v>6</v>
+      </c>
+      <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6</v>
+      </c>
+      <c r="V13" t="n">
+        <v>6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>6</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" t="n">
+        <v>5</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="15"/>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mariana Oliveira</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -560,42 +1339,389 @@
         <v>6</v>
       </c>
       <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6</v>
+      </c>
+      <c r="V16" t="n">
+        <v>6</v>
+      </c>
+      <c r="W16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="17"/>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>6</v>
+      </c>
+      <c r="V17" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="n">
+        <v>6</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6</v>
+      </c>
+      <c r="V18" t="n">
+        <v>6</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5</v>
       </c>
     </row>
-    <row r="19"/>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5</v>
+      </c>
+      <c r="O19" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" t="n">
+        <v>6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>6</v>
+      </c>
+      <c r="V19" t="n">
+        <v>6</v>
+      </c>
+      <c r="W19" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5</v>
+      </c>
+      <c r="O20" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>5</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="n">
+        <v>5</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -609,40 +1735,387 @@
       <c r="F22" t="n">
         <v>6</v>
       </c>
+      <c r="G22" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>6</v>
+      </c>
+      <c r="V22" t="n">
+        <v>6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row r="23"/>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>4</v>
+      </c>
+      <c r="U23" t="n">
+        <v>6</v>
+      </c>
+      <c r="V23" t="n">
+        <v>6</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>6</v>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>6</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="25"/>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" t="n">
+        <v>5</v>
+      </c>
+      <c r="U25" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>5</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>4</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5</v>
+      </c>
+      <c r="O27" t="n">
+        <v>5</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>4</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4</v>
       </c>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mariana Arezes</t>
+          <t>Inês Bastos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -654,323 +2127,761 @@
         <v>6</v>
       </c>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>6</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="29"/>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>6</v>
+      </c>
+    </row>
     <row r="30">
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="n">
+        <v>5</v>
+      </c>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6</v>
       </c>
     </row>
-    <row r="31"/>
-    <row r="32">
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>6</v>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33"/>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>6</v>
-      </c>
-      <c r="F34" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36">
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>5</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37"/>
-    <row r="38">
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>5</v>
-      </c>
-      <c r="F38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39"/>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42">
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43"/>
-    <row r="44">
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45"/>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47"/>
-    <row r="48">
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>4</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49"/>
-    <row r="50">
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51"/>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Inês Bastos</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53"/>
-    <row r="54">
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>4</v>
-      </c>
-      <c r="F54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55"/>
-    <row r="56">
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>4</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57"/>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="C38:D39"/>
+  <mergeCells count="571">
+    <mergeCell ref="T17"/>
+    <mergeCell ref="P28"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="N30"/>
+    <mergeCell ref="T19"/>
+    <mergeCell ref="P30"/>
+    <mergeCell ref="P5"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="R5"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="T20"/>
+    <mergeCell ref="O24"/>
+    <mergeCell ref="T14"/>
+    <mergeCell ref="Q24"/>
+    <mergeCell ref="I27"/>
+    <mergeCell ref="V14"/>
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="M9"/>
+    <mergeCell ref="O9"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="S17"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="S11"/>
+    <mergeCell ref="U17"/>
+    <mergeCell ref="M20"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="U11"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="P8"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="Q19"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="M22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="M15"/>
+    <mergeCell ref="P16"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="P18"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="V25"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="M4"/>
+    <mergeCell ref="S26"/>
+    <mergeCell ref="U26"/>
+    <mergeCell ref="P29"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="R29"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="V20"/>
+    <mergeCell ref="P6"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="U25"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="V15"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="S19"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="O27"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="Q27"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="S20"/>
+    <mergeCell ref="N24"/>
+    <mergeCell ref="U20"/>
+    <mergeCell ref="P24"/>
+    <mergeCell ref="U14"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="W14"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="R18"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="S22"/>
+    <mergeCell ref="N26"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="U22"/>
+    <mergeCell ref="P26"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U15"/>
+    <mergeCell ref="W15"/>
+    <mergeCell ref="R19"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="V28"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="V30"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="U8"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="W8"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="U10"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="W28"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="W5"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="R16"/>
+    <mergeCell ref="V24"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="P27"/>
+    <mergeCell ref="R27"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="R20"/>
+    <mergeCell ref="U21"/>
+    <mergeCell ref="M21"/>
+    <mergeCell ref="W21"/>
+    <mergeCell ref="O21"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="L25"/>
+    <mergeCell ref="R22"/>
+    <mergeCell ref="M26"/>
+    <mergeCell ref="T22"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="R9"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="O10"/>
+    <mergeCell ref="R11"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="T4"/>
+    <mergeCell ref="V4"/>
+    <mergeCell ref="U30"/>
+    <mergeCell ref="W30"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="Q5"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="M28"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="N10"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="V26"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="M29"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M23"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="Q16"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="S16"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="W24"/>
+    <mergeCell ref="G27"/>
+    <mergeCell ref="J28"/>
+    <mergeCell ref="O18"/>
+    <mergeCell ref="L28"/>
+    <mergeCell ref="Q18"/>
+    <mergeCell ref="S18"/>
+    <mergeCell ref="W26"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="N21"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="P21"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="L23"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="N23"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="P23"/>
+    <mergeCell ref="Q9"/>
+    <mergeCell ref="S9"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="M17"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="O17"/>
+    <mergeCell ref="T7"/>
+    <mergeCell ref="O11"/>
+    <mergeCell ref="Q17"/>
+    <mergeCell ref="V7"/>
+    <mergeCell ref="Q11"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="M19"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="S4"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="N16"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="P9"/>
+    <mergeCell ref="R25"/>
+    <mergeCell ref="T25"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="S7"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="M10"/>
+    <mergeCell ref="P11"/>
+    <mergeCell ref="O26"/>
+    <mergeCell ref="Q26"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="L29"/>
+    <mergeCell ref="N29"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="T15"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="V8"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="O20"/>
+    <mergeCell ref="T10"/>
+    <mergeCell ref="Q20"/>
+    <mergeCell ref="V10"/>
+    <mergeCell ref="Q14"/>
+    <mergeCell ref="S14"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="O22"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="N17"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="P17"/>
+    <mergeCell ref="U7"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="W7"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="Q15"/>
+    <mergeCell ref="S15"/>
+    <mergeCell ref="N19"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="P19"/>
+    <mergeCell ref="H22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="T28"/>
+    <mergeCell ref="P14"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="R14"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="V21"/>
+    <mergeCell ref="Q25"/>
+    <mergeCell ref="T30"/>
+    <mergeCell ref="S25"/>
+    <mergeCell ref="T29"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="V23"/>
+    <mergeCell ref="A16:B18"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="S28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="Q22"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="V16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="L27"/>
+    <mergeCell ref="T18"/>
+    <mergeCell ref="N27"/>
+    <mergeCell ref="V18"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="V17"/>
+    <mergeCell ref="N20"/>
+    <mergeCell ref="P20"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="W10"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="N22"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="P22"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="V29"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R15"/>
+    <mergeCell ref="U16"/>
+    <mergeCell ref="V6"/>
+    <mergeCell ref="U28"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="Q30"/>
+    <mergeCell ref="S30"/>
+    <mergeCell ref="S5"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="S29"/>
+    <mergeCell ref="U29"/>
+    <mergeCell ref="U23"/>
+    <mergeCell ref="W29"/>
+    <mergeCell ref="W23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="W6"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="R28"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="V19"/>
+    <mergeCell ref="R30"/>
+    <mergeCell ref="M16"/>
+    <mergeCell ref="W16"/>
+    <mergeCell ref="O16"/>
+    <mergeCell ref="A13:B15"/>
+    <mergeCell ref="S24"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="U24"/>
+    <mergeCell ref="M27"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="U18"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="M18"/>
+    <mergeCell ref="W18"/>
+    <mergeCell ref="W17"/>
+    <mergeCell ref="W11"/>
+    <mergeCell ref="J21"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="L21"/>
+    <mergeCell ref="G25"/>
+    <mergeCell ref="U19"/>
+    <mergeCell ref="W19"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="R23"/>
+    <mergeCell ref="J23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="R7"/>
+    <mergeCell ref="M11"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="Q4"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="V27"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="N9"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="M24"/>
+    <mergeCell ref="T6"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="V22"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="P4"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="O19"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:B9"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A40:B45"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="A16:B21"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A46:B51"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="A22:B27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="A34:B39"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A28:B33"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="A10:B15"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="A52:B57"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="S27"/>
+    <mergeCell ref="U27"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="W20"/>
+    <mergeCell ref="R24"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="L24"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="I28"/>
+    <mergeCell ref="N18"/>
+    <mergeCell ref="W22"/>
+    <mergeCell ref="R26"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="T26"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="L26"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="T8"/>
+    <mergeCell ref="W9"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="M14"/>
+    <mergeCell ref="O14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="W4"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="Q7"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="N11"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="O15"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="T5"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="V5"/>
+    <mergeCell ref="Q8"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="S8"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="Q10"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="N14"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="R21"/>
+    <mergeCell ref="M25"/>
+    <mergeCell ref="T21"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="P7"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T23"/>
+    <mergeCell ref="G29"/>
+    <mergeCell ref="T16"/>
+    <mergeCell ref="I29"/>
+    <mergeCell ref="T27"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="Q21"/>
+    <mergeCell ref="S21"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="N25"/>
+    <mergeCell ref="P25"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="T9"/>
+    <mergeCell ref="V9"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="T11"/>
+    <mergeCell ref="S10"/>
+    <mergeCell ref="V11"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="L22"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N15"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="P15"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R8"/>
+    <mergeCell ref="U9"/>
+    <mergeCell ref="T24"/>
+    <mergeCell ref="W25"/>
+    <mergeCell ref="O28"/>
+    <mergeCell ref="Q28"/>
+    <mergeCell ref="P10"/>
+    <mergeCell ref="R10"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="O29"/>
+    <mergeCell ref="Q29"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="Q23"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="S23"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="Q6"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="S6"/>
+    <mergeCell ref="R17"/>
+    <mergeCell ref="N28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -514,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,15 +867,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Paula Ferreira</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
+      <c r="A7" s="7" t="n"/>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
       <c r="D7" s="7" t="n"/>
@@ -883,37 +878,37 @@
         <v>6</v>
       </c>
       <c r="F7" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="8" t="n">
         <v>6</v>
       </c>
       <c r="H7" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K7" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="N7" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P7" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="8" t="n">
         <v>6</v>
@@ -925,49 +920,49 @@
         <v>6</v>
       </c>
       <c r="T7" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W7" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n"/>
       <c r="C8" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I8" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>5</v>
@@ -979,7 +974,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q8" s="8" t="n">
         <v>6</v>
@@ -988,7 +983,7 @@
         <v>6</v>
       </c>
       <c r="S8" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T8" s="9" t="n">
         <v>5</v>
@@ -997,25 +992,25 @@
         <v>5</v>
       </c>
       <c r="V8" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W8" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n"/>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F9" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G9" s="8" t="n">
         <v>5</v>
@@ -1024,28 +1019,28 @@
         <v>5</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J9" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K9" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L9" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N9" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P9" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q9" s="8" t="n">
         <v>6</v>
@@ -1054,7 +1049,7 @@
         <v>6</v>
       </c>
       <c r="S9" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T9" s="9" t="n">
         <v>6</v>
@@ -1063,60 +1058,55 @@
         <v>5</v>
       </c>
       <c r="V9" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W9" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Mariana Oliveira</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="A10" s="7" t="n"/>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J10" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L10" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O10" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P10" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q10" s="8" t="n">
         <v>6</v>
@@ -1125,100 +1115,105 @@
         <v>6</v>
       </c>
       <c r="S10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V10" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W10" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Rafaela Carvalho</t>
         </is>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G11" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H11" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" s="8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" s="9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N11" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O11" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P11" s="9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R11" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S11" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U11" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W11" s="9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
       <c r="C12" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" s="8" t="n">
         <v>6</v>
@@ -1227,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J12" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" s="9" t="n">
         <v>5</v>
@@ -1242,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="N12" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O12" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P12" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q12" s="8" t="n">
         <v>6</v>
@@ -1263,63 +1258,58 @@
         <v>6</v>
       </c>
       <c r="U12" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W12" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Inês Cabral</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
+      <c r="A13" s="7" t="n"/>
       <c r="C13" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F13" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J13" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L13" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O13" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P13" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q13" s="8" t="n">
         <v>6</v>
@@ -1328,112 +1318,112 @@
         <v>6</v>
       </c>
       <c r="S13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W13" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n"/>
       <c r="C14" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D14" s="7" t="n"/>
       <c r="E14" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F14" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="8" t="n">
         <v>4</v>
       </c>
       <c r="J14" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O14" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P14" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q14" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14" s="8" t="n">
         <v>6</v>
       </c>
       <c r="S14" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U14" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W14" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
       <c r="D15" s="7" t="n"/>
       <c r="E15" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H15" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I15" s="8" t="n">
         <v>5</v>
       </c>
       <c r="J15" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K15" s="9" t="n">
         <v>5</v>
@@ -1442,16 +1432,16 @@
         <v>6</v>
       </c>
       <c r="M15" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N15" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O15" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P15" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q15" s="8" t="n">
         <v>6</v>
@@ -1460,13 +1450,13 @@
         <v>6</v>
       </c>
       <c r="S15" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T15" s="9" t="n">
         <v>5</v>
       </c>
       <c r="U15" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V15" s="9" t="n">
         <v>6</v>
@@ -1476,15 +1466,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Mariana Arezes</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
+      <c r="A16" s="7" t="n"/>
       <c r="C16" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="D16" s="7" t="n"/>
@@ -1492,37 +1477,37 @@
         <v>6</v>
       </c>
       <c r="F16" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G16" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H16" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J16" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L16" s="9" t="n">
         <v>6</v>
       </c>
       <c r="M16" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N16" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O16" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P16" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q16" s="8" t="n">
         <v>6</v>
@@ -1550,12 +1535,12 @@
       <c r="A17" s="7" t="n"/>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="D17" s="7" t="n"/>
       <c r="E17" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" s="8" t="n">
         <v>5</v>
@@ -1564,31 +1549,31 @@
         <v>5</v>
       </c>
       <c r="H17" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="J17" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L17" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O17" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q17" s="8" t="n">
         <v>6</v>
@@ -1597,64 +1582,64 @@
         <v>6</v>
       </c>
       <c r="S17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U17" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W17" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n"/>
       <c r="C18" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="D18" s="7" t="n"/>
       <c r="E18" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G18" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L18" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P18" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="8" t="n">
         <v>6</v>
@@ -1663,31 +1648,26 @@
         <v>6</v>
       </c>
       <c r="S18" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T18" s="9" t="n">
         <v>5</v>
       </c>
       <c r="U18" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V18" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W18" s="9" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>Paulo Vieira</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="A19" s="7" t="n"/>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Rafaela Carvalho</t>
         </is>
       </c>
       <c r="D19" s="7" t="n"/>
@@ -1695,37 +1675,37 @@
         <v>6</v>
       </c>
       <c r="F19" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H19" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L19" s="9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N19" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O19" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P19" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q19" s="8" t="n">
         <v>6</v>
@@ -1734,171 +1714,171 @@
         <v>6</v>
       </c>
       <c r="S19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T19" s="9" t="n">
         <v>6</v>
       </c>
       <c r="U19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W19" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
       <c r="C20" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Catarina Milheiro</t>
         </is>
       </c>
       <c r="D20" s="7" t="n"/>
       <c r="E20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" s="9" t="n">
         <v>6</v>
       </c>
       <c r="L20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O20" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P20" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" s="8" t="n">
         <v>6</v>
       </c>
       <c r="S20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V20" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W20" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n"/>
       <c r="C21" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Gonçalo Figueiredo</t>
         </is>
       </c>
       <c r="D21" s="7" t="n"/>
       <c r="E21" s="8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F21" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I21" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L21" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" s="9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O21" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P21" s="9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="R21" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S21" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21" s="9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U21" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W21" s="9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>Gonçalo Figueiredo</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
+      <c r="A22" s="7" t="n"/>
       <c r="C22" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="D22" s="7" t="n"/>
       <c r="E22" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="8" t="n">
         <v>6</v>
@@ -1907,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="I22" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J22" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>6</v>
@@ -1922,13 +1902,13 @@
         <v>6</v>
       </c>
       <c r="N22" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P22" s="9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="8" t="n">
         <v>6</v>
@@ -1943,37 +1923,37 @@
         <v>6</v>
       </c>
       <c r="U22" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V22" s="9" t="n">
         <v>6</v>
       </c>
       <c r="W22" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
       <c r="C23" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Mariana Arezes</t>
         </is>
       </c>
       <c r="D23" s="7" t="n"/>
       <c r="E23" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F23" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H23" s="8" t="n">
         <v>6</v>
       </c>
       <c r="I23" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" s="8" t="n">
         <v>6</v>
@@ -1985,7 +1965,7 @@
         <v>6</v>
       </c>
       <c r="M23" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" s="9" t="n">
         <v>6</v>
@@ -2006,7 +1986,7 @@
         <v>6</v>
       </c>
       <c r="T23" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U23" s="9" t="n">
         <v>6</v>
@@ -2022,7 +2002,7 @@
       <c r="A24" s="7" t="n"/>
       <c r="C24" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Mariana Oliveira</t>
         </is>
       </c>
       <c r="D24" s="7" t="n"/>
@@ -2054,13 +2034,13 @@
         <v>6</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O24" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P24" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24" s="8" t="n">
         <v>6</v>
@@ -2085,15 +2065,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Catarina Milheiro</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
+      <c r="A25" s="7" t="n"/>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>Catarina Milheiro</t>
+          <t>Paula Ferreira</t>
         </is>
       </c>
       <c r="D25" s="7" t="n"/>
@@ -2107,16 +2082,16 @@
         <v>6</v>
       </c>
       <c r="H25" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I25" s="8" t="n">
         <v>6</v>
       </c>
       <c r="J25" s="8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L25" s="9" t="n">
         <v>6</v>
@@ -2125,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="N25" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O25" s="9" t="n">
         <v>6</v>
@@ -2143,13 +2118,13 @@
         <v>6</v>
       </c>
       <c r="T25" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U25" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V25" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W25" s="9" t="n">
         <v>6</v>
@@ -2159,138 +2134,138 @@
       <c r="A26" s="7" t="n"/>
       <c r="C26" s="6" t="inlineStr">
         <is>
-          <t>Gonçalo Figueiredo</t>
+          <t>Paulo Vieira</t>
         </is>
       </c>
       <c r="D26" s="7" t="n"/>
       <c r="E26" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H26" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I26" s="8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J26" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L26" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M26" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N26" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O26" s="9" t="n">
         <v>6</v>
       </c>
       <c r="P26" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S26" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T26" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U26" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V26" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W26" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n"/>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>Inês Cabral</t>
+          <t>Rafaela Carvalho</t>
         </is>
       </c>
       <c r="D27" s="7" t="n"/>
       <c r="E27" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G27" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H27" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I27" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J27" s="8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M27" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N27" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O27" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P27" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R27" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T27" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U27" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W27" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>Inês Bastos</t>
+          <t>Inês Cabral</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -2316,7 +2291,7 @@
         <v>6</v>
       </c>
       <c r="J28" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K28" s="9" t="n">
         <v>6</v>
@@ -2349,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="U28" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V28" s="9" t="n">
         <v>6</v>
@@ -2367,31 +2342,31 @@
       </c>
       <c r="D29" s="7" t="n"/>
       <c r="E29" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F29" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29" s="8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29" s="8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L29" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M29" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" s="9" t="n">
         <v>6</v>
@@ -2409,16 +2384,16 @@
         <v>6</v>
       </c>
       <c r="S29" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T29" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V29" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W29" s="9" t="n">
         <v>6</v>
@@ -2433,34 +2408,34 @@
       </c>
       <c r="D30" s="7" t="n"/>
       <c r="E30" s="8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G30" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J30" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L30" s="9" t="n">
         <v>6</v>
       </c>
       <c r="M30" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N30" s="9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O30" s="9" t="n">
         <v>6</v>
@@ -2469,600 +2444,4495 @@
         <v>5</v>
       </c>
       <c r="Q30" s="8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R30" s="8" t="n">
         <v>6</v>
       </c>
       <c r="S30" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30" s="9" t="n">
         <v>5</v>
       </c>
       <c r="U30" s="9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V30" s="9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W30" s="9" t="n">
         <v>6</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="7" t="n"/>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U31" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W31" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="n"/>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V32" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="n"/>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T33" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="n"/>
+      <c r="C34" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="n"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L35" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W35" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N36" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W36" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="n"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="n"/>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T38" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V38" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="n"/>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V39" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W39" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="7" t="n"/>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V40" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="7" t="n"/>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N41" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V41" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W41" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="7" t="n"/>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L42" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U42" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V42" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W42" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="7" t="n"/>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F43" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T43" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V43" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W43" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N44" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V44" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W44" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="n"/>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O45" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U45" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W45" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="7" t="n"/>
+      <c r="C46" s="6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F46" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U46" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W46" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="7" t="n"/>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U47" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W47" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="7" t="n"/>
+      <c r="C48" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V48" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W48" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="7" t="n"/>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V49" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W49" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="7" t="n"/>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F50" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U50" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W50" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="7" t="n"/>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M51" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U51" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W51" s="9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+      <c r="C52" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N52" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V52" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W52" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="7" t="n"/>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M53" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T53" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V53" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W53" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="7" t="n"/>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V54" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W54" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="7" t="n"/>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V55" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W55" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="7" t="n"/>
+      <c r="C56" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V56" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W56" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="7" t="n"/>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N57" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V57" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W57" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="n"/>
+      <c r="C58" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P58" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V58" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W58" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="7" t="n"/>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V59" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W59" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="n"/>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H60" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N60" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T60" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U60" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V60" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="7" t="n"/>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O61" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P61" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U61" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W61" s="9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="7" t="n"/>
+      <c r="C62" s="6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J62" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O62" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="P62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U62" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W62" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="7" t="n"/>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T63" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W63" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="7" t="n"/>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N64" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P64" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V64" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W64" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="7" t="n"/>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D65" s="7" t="n"/>
+      <c r="E65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N65" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R65" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U65" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W65" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="7" t="n"/>
+      <c r="C66" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D66" s="7" t="n"/>
+      <c r="E66" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F66" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H66" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L66" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="M66" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P66" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T66" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U66" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="V66" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W66" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="7" t="n"/>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D67" s="7" t="n"/>
+      <c r="E67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U67" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W67" s="9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>Inês Bastos</t>
+        </is>
+      </c>
+      <c r="B68" s="7" t="n"/>
+      <c r="C68" s="6" t="inlineStr">
+        <is>
+          <t>Catarina Milheiro</t>
+        </is>
+      </c>
+      <c r="D68" s="7" t="n"/>
+      <c r="E68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J68" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P68" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R68" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U68" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W68" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="7" t="n"/>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>Gonçalo Figueiredo</t>
+        </is>
+      </c>
+      <c r="D69" s="7" t="n"/>
+      <c r="E69" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="G69" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I69" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M69" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O69" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U69" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W69" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="7" t="n"/>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>Inês Cabral</t>
+        </is>
+      </c>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F70" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I70" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="L70" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O70" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U70" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W70" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="7" t="n"/>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Arezes</t>
+        </is>
+      </c>
+      <c r="D71" s="7" t="n"/>
+      <c r="E71" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J71" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U71" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W71" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="7" t="n"/>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>Mariana Oliveira</t>
+        </is>
+      </c>
+      <c r="D72" s="7" t="n"/>
+      <c r="E72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="G72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P72" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R72" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U72" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W72" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="n"/>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>Paula Ferreira</t>
+        </is>
+      </c>
+      <c r="D73" s="7" t="n"/>
+      <c r="E73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F73" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="T73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="U73" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="W73" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="7" t="n"/>
+      <c r="C74" s="6" t="inlineStr">
+        <is>
+          <t>Paulo Vieira</t>
+        </is>
+      </c>
+      <c r="D74" s="7" t="n"/>
+      <c r="E74" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F74" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G74" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I74" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="J74" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W74" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="7" t="n"/>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>Rafaela Carvalho</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="n"/>
+      <c r="E75" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="F75" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G75" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="I75" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J75" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L75" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O75" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="P75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R75" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="U75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="W75" s="9" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="571">
+  <mergeCells count="1471">
     <mergeCell ref="T17"/>
+    <mergeCell ref="E70"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="L59"/>
+    <mergeCell ref="T19"/>
+    <mergeCell ref="T46"/>
+    <mergeCell ref="I50"/>
+    <mergeCell ref="W57"/>
+    <mergeCell ref="L61"/>
+    <mergeCell ref="T48"/>
+    <mergeCell ref="T20"/>
+    <mergeCell ref="T14"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="S42"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="U17"/>
+    <mergeCell ref="U11"/>
+    <mergeCell ref="I47"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="T74"/>
+    <mergeCell ref="W75"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="T40"/>
+    <mergeCell ref="J41"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="W70"/>
+    <mergeCell ref="J43"/>
+    <mergeCell ref="K38"/>
+    <mergeCell ref="N49"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="Q32"/>
+    <mergeCell ref="J67"/>
+    <mergeCell ref="K33"/>
+    <mergeCell ref="R29"/>
+    <mergeCell ref="U65"/>
+    <mergeCell ref="J69"/>
+    <mergeCell ref="K35"/>
+    <mergeCell ref="M70"/>
+    <mergeCell ref="R31"/>
+    <mergeCell ref="T59"/>
+    <mergeCell ref="U25"/>
+    <mergeCell ref="G53"/>
+    <mergeCell ref="Q50"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="R51"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="S19"/>
+    <mergeCell ref="O40"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="K61"/>
+    <mergeCell ref="S20"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="S22"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="R44"/>
+    <mergeCell ref="L57"/>
+    <mergeCell ref="I41"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="S38"/>
+    <mergeCell ref="A44:B51"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="P39"/>
+    <mergeCell ref="S40"/>
+    <mergeCell ref="S33"/>
+    <mergeCell ref="H37"/>
+    <mergeCell ref="O58"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="U8"/>
+    <mergeCell ref="F61"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="T72"/>
+    <mergeCell ref="S35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="U10"/>
+    <mergeCell ref="I69"/>
+    <mergeCell ref="L70"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="W68"/>
+    <mergeCell ref="P50"/>
+    <mergeCell ref="T58"/>
+    <mergeCell ref="P52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J65"/>
+    <mergeCell ref="R27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="R20"/>
+    <mergeCell ref="U21"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="Q46"/>
+    <mergeCell ref="R22"/>
+    <mergeCell ref="G51"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="Q48"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="Q41"/>
+    <mergeCell ref="R9"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="Q43"/>
+    <mergeCell ref="O10"/>
+    <mergeCell ref="R11"/>
+    <mergeCell ref="R38"/>
+    <mergeCell ref="G42"/>
+    <mergeCell ref="U49"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="O39"/>
+    <mergeCell ref="R40"/>
+    <mergeCell ref="K60"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="H51"/>
+    <mergeCell ref="Q67"/>
+    <mergeCell ref="K75"/>
+    <mergeCell ref="G37"/>
+    <mergeCell ref="N58"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="Q69"/>
+    <mergeCell ref="R35"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="R66"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="R68"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="H35"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="S62"/>
+    <mergeCell ref="O18"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="H59"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="P46"/>
+    <mergeCell ref="P21"/>
+    <mergeCell ref="S57"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="H61"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="P48"/>
+    <mergeCell ref="P23"/>
+    <mergeCell ref="Q9"/>
+    <mergeCell ref="E45"/>
+    <mergeCell ref="O42"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="T56"/>
+    <mergeCell ref="Q17"/>
+    <mergeCell ref="P43"/>
+    <mergeCell ref="Q11"/>
+    <mergeCell ref="W39"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="P74"/>
+    <mergeCell ref="S75"/>
+    <mergeCell ref="F44"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="P69"/>
+    <mergeCell ref="S70"/>
+    <mergeCell ref="M60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="J49"/>
+    <mergeCell ref="W50"/>
+    <mergeCell ref="G33"/>
+    <mergeCell ref="N29"/>
+    <mergeCell ref="Q65"/>
+    <mergeCell ref="G35"/>
+    <mergeCell ref="N31"/>
+    <mergeCell ref="M50"/>
+    <mergeCell ref="A12:B19"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="R64"/>
+    <mergeCell ref="G59"/>
+    <mergeCell ref="R57"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="G67"/>
+    <mergeCell ref="V8"/>
+    <mergeCell ref="G61"/>
+    <mergeCell ref="O20"/>
+    <mergeCell ref="V10"/>
+    <mergeCell ref="N42"/>
+    <mergeCell ref="O22"/>
+    <mergeCell ref="A68:B75"/>
+    <mergeCell ref="P17"/>
+    <mergeCell ref="V39"/>
+    <mergeCell ref="W7"/>
+    <mergeCell ref="N44"/>
+    <mergeCell ref="H57"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="O51"/>
+    <mergeCell ref="P19"/>
+    <mergeCell ref="O47"/>
+    <mergeCell ref="R75"/>
+    <mergeCell ref="U58"/>
+    <mergeCell ref="P12"/>
+    <mergeCell ref="E41"/>
+    <mergeCell ref="E16"/>
+    <mergeCell ref="O38"/>
+    <mergeCell ref="P14"/>
+    <mergeCell ref="E43"/>
+    <mergeCell ref="E18"/>
+    <mergeCell ref="V21"/>
+    <mergeCell ref="I49"/>
+    <mergeCell ref="L32"/>
+    <mergeCell ref="O33"/>
+    <mergeCell ref="V23"/>
+    <mergeCell ref="F40"/>
+    <mergeCell ref="T47"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="P72"/>
+    <mergeCell ref="P65"/>
+    <mergeCell ref="F41"/>
+    <mergeCell ref="E69"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="H70"/>
+    <mergeCell ref="M31"/>
+    <mergeCell ref="O59"/>
+    <mergeCell ref="W46"/>
+    <mergeCell ref="L50"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="O61"/>
+    <mergeCell ref="W48"/>
+    <mergeCell ref="L52"/>
+    <mergeCell ref="N27"/>
+    <mergeCell ref="N20"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="N22"/>
+    <mergeCell ref="W74"/>
+    <mergeCell ref="T65"/>
+    <mergeCell ref="G57"/>
+    <mergeCell ref="V6"/>
+    <mergeCell ref="N38"/>
+    <mergeCell ref="G58"/>
+    <mergeCell ref="U28"/>
+    <mergeCell ref="Q49"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="N40"/>
+    <mergeCell ref="U29"/>
+    <mergeCell ref="U23"/>
+    <mergeCell ref="J58"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="N35"/>
+    <mergeCell ref="U31"/>
+    <mergeCell ref="W6"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="G70"/>
+    <mergeCell ref="N66"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="V19"/>
+    <mergeCell ref="N68"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="N61"/>
+    <mergeCell ref="W16"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="K52"/>
+    <mergeCell ref="M27"/>
+    <mergeCell ref="W18"/>
+    <mergeCell ref="W17"/>
+    <mergeCell ref="W11"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="L21"/>
+    <mergeCell ref="O57"/>
+    <mergeCell ref="W19"/>
+    <mergeCell ref="V47"/>
+    <mergeCell ref="L48"/>
+    <mergeCell ref="V38"/>
+    <mergeCell ref="L43"/>
+    <mergeCell ref="P56"/>
+    <mergeCell ref="M11"/>
+    <mergeCell ref="S39"/>
+    <mergeCell ref="V63"/>
+    <mergeCell ref="P49"/>
+    <mergeCell ref="L74"/>
+    <mergeCell ref="M40"/>
+    <mergeCell ref="O75"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="W72"/>
+    <mergeCell ref="M41"/>
+    <mergeCell ref="L69"/>
+    <mergeCell ref="N9"/>
+    <mergeCell ref="O70"/>
+    <mergeCell ref="V66"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="M66"/>
+    <mergeCell ref="S50"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="M68"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="U27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="N62"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N64"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="N57"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="K48"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="U55"/>
+    <mergeCell ref="U38"/>
+    <mergeCell ref="J42"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="R39"/>
+    <mergeCell ref="U40"/>
+    <mergeCell ref="J44"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="N75"/>
+    <mergeCell ref="J37"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="V72"/>
+    <mergeCell ref="S8"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="U66"/>
+    <mergeCell ref="R21"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="E49"/>
+    <mergeCell ref="H32"/>
+    <mergeCell ref="U68"/>
+    <mergeCell ref="R50"/>
+    <mergeCell ref="I29"/>
+    <mergeCell ref="L65"/>
+    <mergeCell ref="V62"/>
+    <mergeCell ref="T27"/>
+    <mergeCell ref="V56"/>
+    <mergeCell ref="I31"/>
+    <mergeCell ref="S46"/>
+    <mergeCell ref="S21"/>
+    <mergeCell ref="H50"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M64"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="S48"/>
+    <mergeCell ref="E51"/>
+    <mergeCell ref="W54"/>
+    <mergeCell ref="T9"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M65"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="W56"/>
+    <mergeCell ref="T11"/>
+    <mergeCell ref="I42"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="S74"/>
+    <mergeCell ref="V75"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="J51"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="P58"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R8"/>
+    <mergeCell ref="U9"/>
+    <mergeCell ref="J38"/>
+    <mergeCell ref="Q28"/>
+    <mergeCell ref="M49"/>
+    <mergeCell ref="R10"/>
+    <mergeCell ref="G39"/>
+    <mergeCell ref="J40"/>
+    <mergeCell ref="Q29"/>
+    <mergeCell ref="T68"/>
+    <mergeCell ref="Q23"/>
+    <mergeCell ref="J35"/>
+    <mergeCell ref="Q31"/>
+    <mergeCell ref="S6"/>
+    <mergeCell ref="U62"/>
+    <mergeCell ref="R17"/>
+    <mergeCell ref="G65"/>
+    <mergeCell ref="J66"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="U64"/>
+    <mergeCell ref="R46"/>
+    <mergeCell ref="G50"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="J61"/>
+    <mergeCell ref="R48"/>
+    <mergeCell ref="G52"/>
+    <mergeCell ref="I27"/>
+    <mergeCell ref="Q42"/>
+    <mergeCell ref="O9"/>
+    <mergeCell ref="S17"/>
+    <mergeCell ref="S11"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="P8"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="R74"/>
+    <mergeCell ref="U75"/>
+    <mergeCell ref="L54"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="L56"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I38"/>
+    <mergeCell ref="L49"/>
+    <mergeCell ref="I40"/>
+    <mergeCell ref="S72"/>
+    <mergeCell ref="H67"/>
+    <mergeCell ref="P29"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="P31"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="T62"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="I66"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="T64"/>
+    <mergeCell ref="I68"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I67"/>
+    <mergeCell ref="Q27"/>
+    <mergeCell ref="F58"/>
+    <mergeCell ref="F52"/>
+    <mergeCell ref="R18"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="P42"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="J57"/>
+    <mergeCell ref="R19"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="Q55"/>
+    <mergeCell ref="Q38"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="N39"/>
+    <mergeCell ref="Q40"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="R72"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="H48"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="Q66"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="Q68"/>
+    <mergeCell ref="N50"/>
+    <mergeCell ref="R63"/>
+    <mergeCell ref="H74"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="H68"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="P27"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="O46"/>
+    <mergeCell ref="O21"/>
+    <mergeCell ref="V36"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="O48"/>
+    <mergeCell ref="S54"/>
+    <mergeCell ref="I65"/>
+    <mergeCell ref="P55"/>
+    <mergeCell ref="S56"/>
+    <mergeCell ref="P38"/>
+    <mergeCell ref="W34"/>
+    <mergeCell ref="E42"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="P40"/>
+    <mergeCell ref="M39"/>
+    <mergeCell ref="W36"/>
+    <mergeCell ref="V64"/>
+    <mergeCell ref="W30"/>
+    <mergeCell ref="E44"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="M28"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="N10"/>
+    <mergeCell ref="P66"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="M57"/>
+    <mergeCell ref="M29"/>
+    <mergeCell ref="P68"/>
+    <mergeCell ref="M23"/>
+    <mergeCell ref="M58"/>
+    <mergeCell ref="W49"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="Q62"/>
+    <mergeCell ref="Q64"/>
+    <mergeCell ref="F59"/>
+    <mergeCell ref="N46"/>
+    <mergeCell ref="N21"/>
+    <mergeCell ref="N48"/>
+    <mergeCell ref="N23"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="R54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="M42"/>
+    <mergeCell ref="H65"/>
+    <mergeCell ref="O17"/>
+    <mergeCell ref="R56"/>
+    <mergeCell ref="O11"/>
+    <mergeCell ref="U39"/>
+    <mergeCell ref="V7"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="N74"/>
+    <mergeCell ref="Q75"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="J59"/>
+    <mergeCell ref="P9"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="H49"/>
+    <mergeCell ref="M10"/>
+    <mergeCell ref="P11"/>
+    <mergeCell ref="W32"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="O74"/>
+    <mergeCell ref="L29"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="L31"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="P62"/>
+    <mergeCell ref="V46"/>
+    <mergeCell ref="E66"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="P64"/>
+    <mergeCell ref="T15"/>
+    <mergeCell ref="E68"/>
+    <mergeCell ref="I46"/>
+    <mergeCell ref="E67"/>
+    <mergeCell ref="M48"/>
+    <mergeCell ref="W45"/>
+    <mergeCell ref="W55"/>
+    <mergeCell ref="T10"/>
+    <mergeCell ref="W47"/>
+    <mergeCell ref="L42"/>
+    <mergeCell ref="N17"/>
+    <mergeCell ref="V74"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="U7"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="N19"/>
+    <mergeCell ref="P75"/>
+    <mergeCell ref="W71"/>
+    <mergeCell ref="M38"/>
+    <mergeCell ref="T34"/>
+    <mergeCell ref="W73"/>
+    <mergeCell ref="T28"/>
+    <mergeCell ref="I59"/>
+    <mergeCell ref="J39"/>
+    <mergeCell ref="K34"/>
+    <mergeCell ref="T30"/>
+    <mergeCell ref="T57"/>
+    <mergeCell ref="T29"/>
+    <mergeCell ref="K36"/>
+    <mergeCell ref="N37"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="T54"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="U53"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="O64"/>
+    <mergeCell ref="V16"/>
+    <mergeCell ref="O72"/>
+    <mergeCell ref="L27"/>
+    <mergeCell ref="V18"/>
+    <mergeCell ref="K49"/>
+    <mergeCell ref="V17"/>
+    <mergeCell ref="V55"/>
+    <mergeCell ref="U74"/>
+    <mergeCell ref="O54"/>
+    <mergeCell ref="V44"/>
+    <mergeCell ref="E65"/>
+    <mergeCell ref="L55"/>
+    <mergeCell ref="L38"/>
+    <mergeCell ref="S34"/>
+    <mergeCell ref="V45"/>
+    <mergeCell ref="F56"/>
+    <mergeCell ref="I39"/>
+    <mergeCell ref="L40"/>
+    <mergeCell ref="S36"/>
+    <mergeCell ref="S30"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="W67"/>
+    <mergeCell ref="S29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F57"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="W69"/>
+    <mergeCell ref="S31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="L66"/>
+    <mergeCell ref="T53"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="W64"/>
+    <mergeCell ref="L68"/>
+    <mergeCell ref="T55"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F75"/>
+    <mergeCell ref="I58"/>
+    <mergeCell ref="S49"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="U24"/>
+    <mergeCell ref="U18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="U19"/>
+    <mergeCell ref="J48"/>
+    <mergeCell ref="J23"/>
+    <mergeCell ref="N54"/>
+    <mergeCell ref="T38"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="N56"/>
+    <mergeCell ref="Q39"/>
+    <mergeCell ref="R7"/>
+    <mergeCell ref="R34"/>
+    <mergeCell ref="T63"/>
+    <mergeCell ref="G38"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="J74"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="M75"/>
+    <mergeCell ref="T71"/>
+    <mergeCell ref="R36"/>
+    <mergeCell ref="U37"/>
+    <mergeCell ref="U72"/>
+    <mergeCell ref="U47"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="T66"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="T6"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="U63"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="K74"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="O19"/>
+    <mergeCell ref="S27"/>
+    <mergeCell ref="H31"/>
+    <mergeCell ref="H58"/>
+    <mergeCell ref="R49"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="V59"/>
+    <mergeCell ref="H60"/>
+    <mergeCell ref="I28"/>
+    <mergeCell ref="L64"/>
+    <mergeCell ref="T26"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="E46"/>
+    <mergeCell ref="S53"/>
+    <mergeCell ref="V54"/>
+    <mergeCell ref="I48"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="S45"/>
+    <mergeCell ref="S55"/>
+    <mergeCell ref="H42"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="M56"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="Q7"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="L75"/>
+    <mergeCell ref="S71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="Q8"/>
+    <mergeCell ref="S73"/>
+    <mergeCell ref="Q10"/>
+    <mergeCell ref="S66"/>
+    <mergeCell ref="A1:W2"/>
+    <mergeCell ref="G34"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="R32"/>
+    <mergeCell ref="S68"/>
+    <mergeCell ref="J47"/>
+    <mergeCell ref="G29"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="G31"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="U59"/>
+    <mergeCell ref="Q21"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="U61"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="R45"/>
+    <mergeCell ref="G49"/>
+    <mergeCell ref="R55"/>
+    <mergeCell ref="U56"/>
+    <mergeCell ref="R47"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="Q74"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="T75"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="P15"/>
+    <mergeCell ref="R71"/>
+    <mergeCell ref="S51"/>
+    <mergeCell ref="G75"/>
+    <mergeCell ref="O34"/>
+    <mergeCell ref="R73"/>
+    <mergeCell ref="O28"/>
+    <mergeCell ref="P10"/>
+    <mergeCell ref="E39"/>
+    <mergeCell ref="H40"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="O36"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="O29"/>
+    <mergeCell ref="F36"/>
+    <mergeCell ref="O65"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="O31"/>
+    <mergeCell ref="Q6"/>
+    <mergeCell ref="H66"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="O62"/>
     <mergeCell ref="P28"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="O56"/>
+    <mergeCell ref="E57"/>
+    <mergeCell ref="S64"/>
+    <mergeCell ref="F39"/>
+    <mergeCell ref="P30"/>
+    <mergeCell ref="I63"/>
+    <mergeCell ref="L46"/>
+    <mergeCell ref="V37"/>
+    <mergeCell ref="R5"/>
+    <mergeCell ref="E58"/>
+    <mergeCell ref="F64"/>
+    <mergeCell ref="J72"/>
+    <mergeCell ref="Q24"/>
+    <mergeCell ref="M9"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="Q19"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="W62"/>
+    <mergeCell ref="J54"/>
+    <mergeCell ref="Q44"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="G55"/>
+    <mergeCell ref="J56"/>
+    <mergeCell ref="N34"/>
+    <mergeCell ref="Q45"/>
+    <mergeCell ref="G46"/>
+    <mergeCell ref="G40"/>
+    <mergeCell ref="N36"/>
+    <mergeCell ref="U26"/>
+    <mergeCell ref="Q47"/>
+    <mergeCell ref="G71"/>
+    <mergeCell ref="T45"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="V20"/>
+    <mergeCell ref="P6"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G66"/>
+    <mergeCell ref="Q63"/>
+    <mergeCell ref="G74"/>
+    <mergeCell ref="V15"/>
+    <mergeCell ref="G68"/>
+    <mergeCell ref="O55"/>
+    <mergeCell ref="V51"/>
+    <mergeCell ref="O27"/>
+    <mergeCell ref="P24"/>
+    <mergeCell ref="W14"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="P26"/>
+    <mergeCell ref="E21"/>
+    <mergeCell ref="V33"/>
+    <mergeCell ref="O53"/>
+    <mergeCell ref="W15"/>
+    <mergeCell ref="E23"/>
+    <mergeCell ref="V35"/>
+    <mergeCell ref="I54"/>
+    <mergeCell ref="V34"/>
+    <mergeCell ref="V28"/>
+    <mergeCell ref="I56"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="L39"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="V30"/>
+    <mergeCell ref="F46"/>
+    <mergeCell ref="O71"/>
+    <mergeCell ref="M36"/>
+    <mergeCell ref="P37"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="P47"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="L72"/>
+    <mergeCell ref="O73"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="O66"/>
+    <mergeCell ref="W53"/>
+    <mergeCell ref="W28"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="S47"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="O68"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="P63"/>
+    <mergeCell ref="F74"/>
+    <mergeCell ref="Q72"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="M21"/>
+    <mergeCell ref="N60"/>
+    <mergeCell ref="U35"/>
+    <mergeCell ref="N55"/>
+    <mergeCell ref="Q56"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="U34"/>
+    <mergeCell ref="N47"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="U36"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="V4"/>
+    <mergeCell ref="U30"/>
+    <mergeCell ref="H64"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="N71"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="N73"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="V32"/>
+    <mergeCell ref="V26"/>
+    <mergeCell ref="R53"/>
+    <mergeCell ref="U54"/>
+    <mergeCell ref="V57"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="E47"/>
+    <mergeCell ref="S16"/>
+    <mergeCell ref="V58"/>
+    <mergeCell ref="W24"/>
+    <mergeCell ref="V52"/>
+    <mergeCell ref="L28"/>
+    <mergeCell ref="S18"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="W26"/>
+    <mergeCell ref="E63"/>
+    <mergeCell ref="H46"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="R37"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="L23"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="M45"/>
+    <mergeCell ref="T41"/>
+    <mergeCell ref="W42"/>
+    <mergeCell ref="V70"/>
+    <mergeCell ref="M17"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="W52"/>
+    <mergeCell ref="T7"/>
+    <mergeCell ref="M47"/>
+    <mergeCell ref="T43"/>
+    <mergeCell ref="M19"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="V71"/>
+    <mergeCell ref="T36"/>
+    <mergeCell ref="W37"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="N16"/>
+    <mergeCell ref="M44"/>
+    <mergeCell ref="V73"/>
+    <mergeCell ref="N51"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="J34"/>
+    <mergeCell ref="M73"/>
+    <mergeCell ref="T25"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="U32"/>
+    <mergeCell ref="W63"/>
+    <mergeCell ref="J36"/>
+    <mergeCell ref="Q26"/>
+    <mergeCell ref="M74"/>
+    <mergeCell ref="J31"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="J62"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="M63"/>
+    <mergeCell ref="U60"/>
+    <mergeCell ref="J64"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="Q37"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="U45"/>
+    <mergeCell ref="G48"/>
+    <mergeCell ref="S14"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="S15"/>
+    <mergeCell ref="U71"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J75"/>
+    <mergeCell ref="R62"/>
+    <mergeCell ref="U73"/>
+    <mergeCell ref="I34"/>
+    <mergeCell ref="S25"/>
+    <mergeCell ref="T32"/>
+    <mergeCell ref="I36"/>
+    <mergeCell ref="L47"/>
+    <mergeCell ref="V69"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="S28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="W59"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="I62"/>
+    <mergeCell ref="Q22"/>
+    <mergeCell ref="L63"/>
+    <mergeCell ref="T60"/>
+    <mergeCell ref="W61"/>
+    <mergeCell ref="I64"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M72"/>
+    <mergeCell ref="T18"/>
+    <mergeCell ref="P45"/>
+    <mergeCell ref="T49"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="T42"/>
+    <mergeCell ref="J60"/>
+    <mergeCell ref="J53"/>
+    <mergeCell ref="M54"/>
+    <mergeCell ref="T50"/>
+    <mergeCell ref="R15"/>
+    <mergeCell ref="U16"/>
+    <mergeCell ref="T44"/>
+    <mergeCell ref="I75"/>
+    <mergeCell ref="Q35"/>
+    <mergeCell ref="J55"/>
+    <mergeCell ref="Q34"/>
+    <mergeCell ref="T73"/>
+    <mergeCell ref="F38"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="Q36"/>
+    <mergeCell ref="Q30"/>
+    <mergeCell ref="S5"/>
+    <mergeCell ref="U67"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="J71"/>
+    <mergeCell ref="K37"/>
+    <mergeCell ref="R33"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="U69"/>
+    <mergeCell ref="G72"/>
+    <mergeCell ref="J73"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="R28"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="N53"/>
+    <mergeCell ref="Q54"/>
+    <mergeCell ref="H39"/>
+    <mergeCell ref="J68"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="R30"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="O16"/>
+    <mergeCell ref="A36:B43"/>
+    <mergeCell ref="S24"/>
+    <mergeCell ref="E27"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="I60"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H54"/>
+    <mergeCell ref="P41"/>
+    <mergeCell ref="S52"/>
+    <mergeCell ref="P34"/>
+    <mergeCell ref="H56"/>
+    <mergeCell ref="E38"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="P36"/>
+    <mergeCell ref="S37"/>
+    <mergeCell ref="Q4"/>
+    <mergeCell ref="E40"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="T69"/>
+    <mergeCell ref="I73"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="M24"/>
+    <mergeCell ref="V53"/>
+    <mergeCell ref="S63"/>
+    <mergeCell ref="M53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="P54"/>
+    <mergeCell ref="I74"/>
+    <mergeCell ref="W44"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="M55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="Q58"/>
+    <mergeCell ref="R24"/>
+    <mergeCell ref="A4:B11"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="N18"/>
+    <mergeCell ref="Q60"/>
+    <mergeCell ref="R26"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="M37"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="G54"/>
+    <mergeCell ref="O14"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="R52"/>
+    <mergeCell ref="H53"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="V3"/>
+    <mergeCell ref="G56"/>
+    <mergeCell ref="O15"/>
+    <mergeCell ref="H55"/>
+    <mergeCell ref="Q71"/>
+    <mergeCell ref="V5"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="N72"/>
+    <mergeCell ref="Q73"/>
+    <mergeCell ref="H52"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="O69"/>
+    <mergeCell ref="R70"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="H45"/>
+    <mergeCell ref="P32"/>
+    <mergeCell ref="P7"/>
+    <mergeCell ref="E36"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="V43"/>
+    <mergeCell ref="Q3"/>
+    <mergeCell ref="S59"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="E62"/>
+    <mergeCell ref="H63"/>
+    <mergeCell ref="P25"/>
+    <mergeCell ref="P60"/>
+    <mergeCell ref="S61"/>
+    <mergeCell ref="E64"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="M51"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="W41"/>
+    <mergeCell ref="L45"/>
+    <mergeCell ref="W43"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="N15"/>
+    <mergeCell ref="P71"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="E75"/>
+    <mergeCell ref="M34"/>
+    <mergeCell ref="P73"/>
+    <mergeCell ref="T24"/>
+    <mergeCell ref="W25"/>
+    <mergeCell ref="K32"/>
+    <mergeCell ref="N33"/>
+    <mergeCell ref="N28"/>
     <mergeCell ref="P3"/>
-    <mergeCell ref="H3"/>
-    <mergeCell ref="J3"/>
     <mergeCell ref="E7"/>
     <mergeCell ref="N30"/>
-    <mergeCell ref="T19"/>
-    <mergeCell ref="P30"/>
+    <mergeCell ref="G63"/>
+    <mergeCell ref="U51"/>
+    <mergeCell ref="J46"/>
+    <mergeCell ref="T37"/>
     <mergeCell ref="P5"/>
-    <mergeCell ref="H5"/>
-    <mergeCell ref="R5"/>
+    <mergeCell ref="R61"/>
     <mergeCell ref="V12"/>
     <mergeCell ref="K16"/>
-    <mergeCell ref="T20"/>
     <mergeCell ref="O24"/>
-    <mergeCell ref="T14"/>
-    <mergeCell ref="Q24"/>
-    <mergeCell ref="I27"/>
     <mergeCell ref="V14"/>
-    <mergeCell ref="A7:B9"/>
     <mergeCell ref="K9"/>
-    <mergeCell ref="M9"/>
-    <mergeCell ref="O9"/>
+    <mergeCell ref="K45"/>
     <mergeCell ref="V13"/>
-    <mergeCell ref="S17"/>
-    <mergeCell ref="K20"/>
-    <mergeCell ref="S11"/>
-    <mergeCell ref="U17"/>
     <mergeCell ref="M20"/>
+    <mergeCell ref="O49"/>
     <mergeCell ref="K11"/>
-    <mergeCell ref="U11"/>
-    <mergeCell ref="F21"/>
-    <mergeCell ref="P8"/>
-    <mergeCell ref="H21"/>
-    <mergeCell ref="Q19"/>
-    <mergeCell ref="I22"/>
-    <mergeCell ref="K22"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="E60"/>
     <mergeCell ref="M22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="U12"/>
+    <mergeCell ref="O50"/>
     <mergeCell ref="M15"/>
     <mergeCell ref="P16"/>
     <mergeCell ref="W12"/>
-    <mergeCell ref="H16"/>
-    <mergeCell ref="J16"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="R3"/>
+    <mergeCell ref="L41"/>
     <mergeCell ref="F27"/>
-    <mergeCell ref="H27"/>
-    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="O52"/>
     <mergeCell ref="P18"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="L34"/>
     <mergeCell ref="V25"/>
-    <mergeCell ref="K4"/>
+    <mergeCell ref="L36"/>
+    <mergeCell ref="O37"/>
     <mergeCell ref="M4"/>
+    <mergeCell ref="S32"/>
     <mergeCell ref="S26"/>
-    <mergeCell ref="U26"/>
-    <mergeCell ref="P29"/>
+    <mergeCell ref="E71"/>
     <mergeCell ref="J5"/>
-    <mergeCell ref="R29"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="H9"/>
-    <mergeCell ref="G8"/>
-    <mergeCell ref="J9"/>
-    <mergeCell ref="V20"/>
-    <mergeCell ref="P6"/>
-    <mergeCell ref="R6"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="G10"/>
-    <mergeCell ref="U25"/>
-    <mergeCell ref="G3"/>
-    <mergeCell ref="J4"/>
-    <mergeCell ref="I3"/>
-    <mergeCell ref="L4"/>
-    <mergeCell ref="V15"/>
+    <mergeCell ref="L67"/>
+    <mergeCell ref="P44"/>
+    <mergeCell ref="W65"/>
+    <mergeCell ref="E73"/>
+    <mergeCell ref="M35"/>
+    <mergeCell ref="F55"/>
+    <mergeCell ref="L62"/>
+    <mergeCell ref="O63"/>
+    <mergeCell ref="F70"/>
+    <mergeCell ref="I53"/>
+    <mergeCell ref="E74"/>
     <mergeCell ref="M30"/>
-    <mergeCell ref="S19"/>
-    <mergeCell ref="F23"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="O27"/>
-    <mergeCell ref="G5"/>
-    <mergeCell ref="Q27"/>
-    <mergeCell ref="I5"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="S20"/>
+    <mergeCell ref="T51"/>
+    <mergeCell ref="I55"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F71"/>
+    <mergeCell ref="M61"/>
+    <mergeCell ref="F37"/>
     <mergeCell ref="N24"/>
     <mergeCell ref="U20"/>
-    <mergeCell ref="P24"/>
     <mergeCell ref="U14"/>
-    <mergeCell ref="H24"/>
-    <mergeCell ref="W14"/>
-    <mergeCell ref="H18"/>
-    <mergeCell ref="R18"/>
     <mergeCell ref="J18"/>
+    <mergeCell ref="T67"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="S22"/>
     <mergeCell ref="N26"/>
-    <mergeCell ref="W13"/>
     <mergeCell ref="U22"/>
-    <mergeCell ref="P26"/>
-    <mergeCell ref="E21"/>
-    <mergeCell ref="H26"/>
-    <mergeCell ref="G21"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="T33"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="U15"/>
-    <mergeCell ref="W15"/>
-    <mergeCell ref="R19"/>
-    <mergeCell ref="E23"/>
-    <mergeCell ref="G23"/>
-    <mergeCell ref="I16"/>
-    <mergeCell ref="V28"/>
-    <mergeCell ref="M13"/>
-    <mergeCell ref="M7"/>
-    <mergeCell ref="V30"/>
-    <mergeCell ref="H19"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="U8"/>
-    <mergeCell ref="M8"/>
+    <mergeCell ref="F68"/>
+    <mergeCell ref="T35"/>
+    <mergeCell ref="K41"/>
+    <mergeCell ref="G62"/>
+    <mergeCell ref="N52"/>
+    <mergeCell ref="K43"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="U33"/>
+    <mergeCell ref="T61"/>
     <mergeCell ref="W8"/>
-    <mergeCell ref="H12"/>
-    <mergeCell ref="O8"/>
-    <mergeCell ref="J12"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="U10"/>
-    <mergeCell ref="H14"/>
-    <mergeCell ref="G9"/>
-    <mergeCell ref="I9"/>
-    <mergeCell ref="W28"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="V65"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="N70"/>
     <mergeCell ref="K25"/>
+    <mergeCell ref="Q53"/>
     <mergeCell ref="L7"/>
-    <mergeCell ref="G11"/>
-    <mergeCell ref="N7"/>
-    <mergeCell ref="F10"/>
-    <mergeCell ref="I11"/>
+    <mergeCell ref="N63"/>
+    <mergeCell ref="K54"/>
     <mergeCell ref="W5"/>
-    <mergeCell ref="E29"/>
     <mergeCell ref="R16"/>
     <mergeCell ref="V24"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="P27"/>
-    <mergeCell ref="R27"/>
-    <mergeCell ref="J27"/>
-    <mergeCell ref="R20"/>
-    <mergeCell ref="U21"/>
-    <mergeCell ref="M21"/>
+    <mergeCell ref="L58"/>
     <mergeCell ref="W21"/>
-    <mergeCell ref="O21"/>
-    <mergeCell ref="G24"/>
-    <mergeCell ref="J25"/>
+    <mergeCell ref="V49"/>
     <mergeCell ref="I24"/>
     <mergeCell ref="L25"/>
-    <mergeCell ref="R22"/>
+    <mergeCell ref="L60"/>
     <mergeCell ref="M26"/>
     <mergeCell ref="T22"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="G26"/>
-    <mergeCell ref="R9"/>
-    <mergeCell ref="H20"/>
-    <mergeCell ref="O10"/>
-    <mergeCell ref="R11"/>
+    <mergeCell ref="I51"/>
+    <mergeCell ref="E72"/>
+    <mergeCell ref="V50"/>
+    <mergeCell ref="S41"/>
     <mergeCell ref="J14"/>
+    <mergeCell ref="S43"/>
+    <mergeCell ref="H38"/>
     <mergeCell ref="J13"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="L13"/>
-    <mergeCell ref="G17"/>
+    <mergeCell ref="M52"/>
     <mergeCell ref="T4"/>
-    <mergeCell ref="S3"/>
-    <mergeCell ref="V4"/>
-    <mergeCell ref="U30"/>
-    <mergeCell ref="W30"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="J15"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="O5"/>
-    <mergeCell ref="L15"/>
-    <mergeCell ref="G19"/>
+    <mergeCell ref="L71"/>
     <mergeCell ref="Q5"/>
+    <mergeCell ref="S67"/>
     <mergeCell ref="G6"/>
-    <mergeCell ref="L8"/>
-    <mergeCell ref="N8"/>
-    <mergeCell ref="I12"/>
+    <mergeCell ref="I37"/>
+    <mergeCell ref="L73"/>
     <mergeCell ref="K12"/>
-    <mergeCell ref="M28"/>
-    <mergeCell ref="L10"/>
-    <mergeCell ref="G14"/>
-    <mergeCell ref="N10"/>
-    <mergeCell ref="I14"/>
-    <mergeCell ref="V26"/>
+    <mergeCell ref="S69"/>
     <mergeCell ref="K14"/>
-    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="P53"/>
     <mergeCell ref="K7"/>
-    <mergeCell ref="M29"/>
-    <mergeCell ref="M23"/>
-    <mergeCell ref="O23"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G32"/>
+    <mergeCell ref="J33"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="M71"/>
     <mergeCell ref="Q16"/>
-    <mergeCell ref="F29"/>
-    <mergeCell ref="S16"/>
-    <mergeCell ref="O6"/>
-    <mergeCell ref="W24"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="G27"/>
     <mergeCell ref="J28"/>
-    <mergeCell ref="O18"/>
-    <mergeCell ref="L28"/>
     <mergeCell ref="Q18"/>
-    <mergeCell ref="S18"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="W26"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="J30"/>
-    <mergeCell ref="N21"/>
-    <mergeCell ref="F24"/>
-    <mergeCell ref="I25"/>
-    <mergeCell ref="P21"/>
+    <mergeCell ref="Q51"/>
     <mergeCell ref="L5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="N5"/>
-    <mergeCell ref="L23"/>
+    <mergeCell ref="U57"/>
     <mergeCell ref="R12"/>
-    <mergeCell ref="N23"/>
-    <mergeCell ref="F26"/>
-    <mergeCell ref="T12"/>
-    <mergeCell ref="P23"/>
-    <mergeCell ref="Q9"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="R41"/>
+    <mergeCell ref="U42"/>
+    <mergeCell ref="T70"/>
     <mergeCell ref="S9"/>
-    <mergeCell ref="M17"/>
-    <mergeCell ref="T13"/>
-    <mergeCell ref="O17"/>
-    <mergeCell ref="G20"/>
-    <mergeCell ref="T7"/>
-    <mergeCell ref="O11"/>
-    <mergeCell ref="Q17"/>
-    <mergeCell ref="V7"/>
-    <mergeCell ref="Q11"/>
+    <mergeCell ref="G45"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="U52"/>
+    <mergeCell ref="K53"/>
     <mergeCell ref="I20"/>
-    <mergeCell ref="M19"/>
-    <mergeCell ref="E22"/>
+    <mergeCell ref="R43"/>
+    <mergeCell ref="G47"/>
     <mergeCell ref="I13"/>
-    <mergeCell ref="G22"/>
-    <mergeCell ref="K13"/>
     <mergeCell ref="S4"/>
-    <mergeCell ref="U4"/>
-    <mergeCell ref="Q12"/>
     <mergeCell ref="I15"/>
     <mergeCell ref="L16"/>
     <mergeCell ref="S12"/>
-    <mergeCell ref="K15"/>
-    <mergeCell ref="N16"/>
-    <mergeCell ref="F16"/>
-    <mergeCell ref="F19"/>
+    <mergeCell ref="R67"/>
+    <mergeCell ref="H41"/>
     <mergeCell ref="F6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="P9"/>
+    <mergeCell ref="V48"/>
+    <mergeCell ref="R59"/>
+    <mergeCell ref="H34"/>
+    <mergeCell ref="R69"/>
+    <mergeCell ref="U70"/>
     <mergeCell ref="R25"/>
-    <mergeCell ref="T25"/>
-    <mergeCell ref="F20"/>
     <mergeCell ref="S7"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="M10"/>
-    <mergeCell ref="P11"/>
+    <mergeCell ref="H36"/>
+    <mergeCell ref="O32"/>
     <mergeCell ref="O26"/>
-    <mergeCell ref="Q26"/>
-    <mergeCell ref="L30"/>
-    <mergeCell ref="L29"/>
-    <mergeCell ref="N29"/>
-    <mergeCell ref="W27"/>
-    <mergeCell ref="L6"/>
-    <mergeCell ref="N6"/>
-    <mergeCell ref="K28"/>
+    <mergeCell ref="I33"/>
+    <mergeCell ref="L44"/>
+    <mergeCell ref="S65"/>
+    <mergeCell ref="T31"/>
+    <mergeCell ref="I35"/>
+    <mergeCell ref="H62"/>
+    <mergeCell ref="E53"/>
     <mergeCell ref="K3"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="E3"/>
+    <mergeCell ref="S60"/>
+    <mergeCell ref="V61"/>
     <mergeCell ref="I30"/>
-    <mergeCell ref="T15"/>
-    <mergeCell ref="K30"/>
+    <mergeCell ref="P51"/>
+    <mergeCell ref="E55"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="K5"/>
-    <mergeCell ref="M5"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="V8"/>
+    <mergeCell ref="M67"/>
+    <mergeCell ref="E48"/>
+    <mergeCell ref="I61"/>
+    <mergeCell ref="O45"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="O20"/>
-    <mergeCell ref="T10"/>
+    <mergeCell ref="M69"/>
     <mergeCell ref="Q20"/>
-    <mergeCell ref="V10"/>
     <mergeCell ref="Q14"/>
-    <mergeCell ref="S14"/>
     <mergeCell ref="F18"/>
-    <mergeCell ref="O22"/>
-    <mergeCell ref="S13"/>
-    <mergeCell ref="N17"/>
-    <mergeCell ref="U13"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="P67"/>
     <mergeCell ref="F17"/>
-    <mergeCell ref="P17"/>
-    <mergeCell ref="U7"/>
-    <mergeCell ref="H17"/>
-    <mergeCell ref="W7"/>
-    <mergeCell ref="H11"/>
-    <mergeCell ref="J11"/>
+    <mergeCell ref="F47"/>
     <mergeCell ref="Q15"/>
-    <mergeCell ref="S15"/>
-    <mergeCell ref="N19"/>
-    <mergeCell ref="F22"/>
-    <mergeCell ref="P19"/>
     <mergeCell ref="H22"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="P12"/>
-    <mergeCell ref="E16"/>
+    <mergeCell ref="H75"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="W58"/>
+    <mergeCell ref="J50"/>
+    <mergeCell ref="G41"/>
     <mergeCell ref="G16"/>
-    <mergeCell ref="T28"/>
-    <mergeCell ref="P14"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="W60"/>
+    <mergeCell ref="J52"/>
     <mergeCell ref="K18"/>
     <mergeCell ref="R14"/>
-    <mergeCell ref="E18"/>
-    <mergeCell ref="V21"/>
+    <mergeCell ref="G43"/>
     <mergeCell ref="Q25"/>
-    <mergeCell ref="T30"/>
-    <mergeCell ref="S25"/>
-    <mergeCell ref="T29"/>
+    <mergeCell ref="G36"/>
     <mergeCell ref="H4"/>
-    <mergeCell ref="V23"/>
-    <mergeCell ref="A16:B18"/>
-    <mergeCell ref="F12"/>
-    <mergeCell ref="K29"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="S28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="U3"/>
-    <mergeCell ref="M6"/>
+    <mergeCell ref="N32"/>
+    <mergeCell ref="Q33"/>
+    <mergeCell ref="A20:B27"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="R65"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="J70"/>
     <mergeCell ref="E6"/>
     <mergeCell ref="H7"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="J7"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="Q22"/>
-    <mergeCell ref="G4"/>
+    <mergeCell ref="J63"/>
+    <mergeCell ref="Q59"/>
+    <mergeCell ref="G64"/>
     <mergeCell ref="I4"/>
-    <mergeCell ref="V16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="L27"/>
-    <mergeCell ref="T18"/>
-    <mergeCell ref="N27"/>
-    <mergeCell ref="V18"/>
-    <mergeCell ref="V17"/>
-    <mergeCell ref="N20"/>
+    <mergeCell ref="Q61"/>
+    <mergeCell ref="N45"/>
     <mergeCell ref="P20"/>
-    <mergeCell ref="F25"/>
     <mergeCell ref="W10"/>
     <mergeCell ref="E24"/>
-    <mergeCell ref="N22"/>
-    <mergeCell ref="R13"/>
     <mergeCell ref="P22"/>
-    <mergeCell ref="K26"/>
     <mergeCell ref="E17"/>
     <mergeCell ref="V29"/>
-    <mergeCell ref="R15"/>
-    <mergeCell ref="U16"/>
+    <mergeCell ref="A28:B35"/>
+    <mergeCell ref="O41"/>
+    <mergeCell ref="O35"/>
     <mergeCell ref="W3"/>
-    <mergeCell ref="V6"/>
-    <mergeCell ref="U28"/>
+    <mergeCell ref="V31"/>
+    <mergeCell ref="O43"/>
+    <mergeCell ref="V60"/>
     <mergeCell ref="F13"/>
-    <mergeCell ref="H13"/>
+    <mergeCell ref="I52"/>
     <mergeCell ref="M3"/>
-    <mergeCell ref="Q30"/>
-    <mergeCell ref="S30"/>
-    <mergeCell ref="S5"/>
-    <mergeCell ref="U5"/>
-    <mergeCell ref="H15"/>
-    <mergeCell ref="S29"/>
-    <mergeCell ref="U29"/>
-    <mergeCell ref="U23"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="H71"/>
+    <mergeCell ref="O67"/>
+    <mergeCell ref="M32"/>
+    <mergeCell ref="P33"/>
     <mergeCell ref="W29"/>
     <mergeCell ref="W23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="H8"/>
-    <mergeCell ref="J8"/>
-    <mergeCell ref="E12"/>
+    <mergeCell ref="E37"/>
+    <mergeCell ref="S44"/>
     <mergeCell ref="G12"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="U6"/>
-    <mergeCell ref="W6"/>
-    <mergeCell ref="H10"/>
-    <mergeCell ref="J10"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="R28"/>
-    <mergeCell ref="K21"/>
-    <mergeCell ref="H25"/>
-    <mergeCell ref="L3"/>
+    <mergeCell ref="P35"/>
+    <mergeCell ref="V42"/>
+    <mergeCell ref="I70"/>
+    <mergeCell ref="L53"/>
     <mergeCell ref="G7"/>
-    <mergeCell ref="I7"/>
-    <mergeCell ref="V19"/>
-    <mergeCell ref="R30"/>
+    <mergeCell ref="W51"/>
+    <mergeCell ref="P59"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="I71"/>
+    <mergeCell ref="P61"/>
     <mergeCell ref="M16"/>
-    <mergeCell ref="W16"/>
-    <mergeCell ref="O16"/>
-    <mergeCell ref="A13:B15"/>
-    <mergeCell ref="S24"/>
-    <mergeCell ref="K27"/>
-    <mergeCell ref="U24"/>
-    <mergeCell ref="M27"/>
+    <mergeCell ref="F62"/>
     <mergeCell ref="F28"/>
-    <mergeCell ref="U18"/>
-    <mergeCell ref="E27"/>
-    <mergeCell ref="H28"/>
     <mergeCell ref="M18"/>
-    <mergeCell ref="W18"/>
-    <mergeCell ref="W17"/>
-    <mergeCell ref="W11"/>
-    <mergeCell ref="J21"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="L21"/>
     <mergeCell ref="G25"/>
-    <mergeCell ref="U19"/>
-    <mergeCell ref="W19"/>
-    <mergeCell ref="H23"/>
+    <mergeCell ref="G60"/>
+    <mergeCell ref="Q57"/>
     <mergeCell ref="R23"/>
-    <mergeCell ref="J23"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="F54"/>
+    <mergeCell ref="N41"/>
+    <mergeCell ref="Q52"/>
     <mergeCell ref="E20"/>
-    <mergeCell ref="R7"/>
-    <mergeCell ref="M11"/>
+    <mergeCell ref="N43"/>
     <mergeCell ref="E13"/>
-    <mergeCell ref="G13"/>
+    <mergeCell ref="A52:B59"/>
     <mergeCell ref="O4"/>
-    <mergeCell ref="Q4"/>
-    <mergeCell ref="M12"/>
+    <mergeCell ref="A60:B67"/>
     <mergeCell ref="E15"/>
-    <mergeCell ref="G15"/>
+    <mergeCell ref="N67"/>
     <mergeCell ref="V27"/>
-    <mergeCell ref="I8"/>
-    <mergeCell ref="L9"/>
-    <mergeCell ref="N9"/>
-    <mergeCell ref="F9"/>
-    <mergeCell ref="M24"/>
-    <mergeCell ref="T6"/>
-    <mergeCell ref="I10"/>
-    <mergeCell ref="L11"/>
+    <mergeCell ref="N59"/>
+    <mergeCell ref="G73"/>
+    <mergeCell ref="N69"/>
+    <mergeCell ref="Q70"/>
     <mergeCell ref="V22"/>
-    <mergeCell ref="K10"/>
     <mergeCell ref="F14"/>
-    <mergeCell ref="H30"/>
-    <mergeCell ref="N4"/>
+    <mergeCell ref="U50"/>
+    <mergeCell ref="U44"/>
     <mergeCell ref="P4"/>
-    <mergeCell ref="H29"/>
-    <mergeCell ref="J29"/>
-    <mergeCell ref="O19"/>
-    <mergeCell ref="S27"/>
-    <mergeCell ref="U27"/>
-    <mergeCell ref="H6"/>
-    <mergeCell ref="J6"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="H44"/>
+    <mergeCell ref="E35"/>
     <mergeCell ref="W20"/>
-    <mergeCell ref="R24"/>
-    <mergeCell ref="J24"/>
+    <mergeCell ref="H73"/>
     <mergeCell ref="E28"/>
     <mergeCell ref="L24"/>
-    <mergeCell ref="G28"/>
     <mergeCell ref="L18"/>
-    <mergeCell ref="I28"/>
-    <mergeCell ref="N18"/>
+    <mergeCell ref="V40"/>
     <mergeCell ref="W22"/>
-    <mergeCell ref="R26"/>
-    <mergeCell ref="J26"/>
-    <mergeCell ref="T26"/>
-    <mergeCell ref="I21"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="L51"/>
     <mergeCell ref="L26"/>
-    <mergeCell ref="E30"/>
-    <mergeCell ref="G30"/>
-    <mergeCell ref="K8"/>
-    <mergeCell ref="I23"/>
+    <mergeCell ref="E59"/>
+    <mergeCell ref="M46"/>
+    <mergeCell ref="P57"/>
+    <mergeCell ref="V41"/>
     <mergeCell ref="T8"/>
     <mergeCell ref="W9"/>
-    <mergeCell ref="O12"/>
-    <mergeCell ref="K23"/>
-    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="E61"/>
+    <mergeCell ref="E54"/>
     <mergeCell ref="M14"/>
-    <mergeCell ref="O14"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="O13"/>
-    <mergeCell ref="J17"/>
+    <mergeCell ref="W38"/>
+    <mergeCell ref="E56"/>
     <mergeCell ref="T3"/>
     <mergeCell ref="W4"/>
-    <mergeCell ref="O7"/>
-    <mergeCell ref="V3"/>
-    <mergeCell ref="Q7"/>
-    <mergeCell ref="Q13"/>
+    <mergeCell ref="M43"/>
     <mergeCell ref="N11"/>
-    <mergeCell ref="L17"/>
-    <mergeCell ref="F11"/>
-    <mergeCell ref="O15"/>
-    <mergeCell ref="J19"/>
+    <mergeCell ref="T39"/>
+    <mergeCell ref="W40"/>
+    <mergeCell ref="V68"/>
     <mergeCell ref="T5"/>
-    <mergeCell ref="L19"/>
-    <mergeCell ref="V5"/>
-    <mergeCell ref="Q8"/>
-    <mergeCell ref="L12"/>
-    <mergeCell ref="S8"/>
+    <mergeCell ref="V67"/>
+    <mergeCell ref="W33"/>
+    <mergeCell ref="L37"/>
+    <mergeCell ref="S58"/>
     <mergeCell ref="N12"/>
-    <mergeCell ref="F15"/>
-    <mergeCell ref="Q10"/>
-    <mergeCell ref="L14"/>
+    <mergeCell ref="W35"/>
     <mergeCell ref="G18"/>
     <mergeCell ref="N14"/>
-    <mergeCell ref="I18"/>
-    <mergeCell ref="A1:W2"/>
-    <mergeCell ref="R21"/>
+    <mergeCell ref="P70"/>
     <mergeCell ref="M25"/>
+    <mergeCell ref="W66"/>
     <mergeCell ref="T21"/>
-    <mergeCell ref="O25"/>
-    <mergeCell ref="P7"/>
+    <mergeCell ref="J32"/>
+    <mergeCell ref="M33"/>
     <mergeCell ref="T23"/>
-    <mergeCell ref="G29"/>
     <mergeCell ref="T16"/>
-    <mergeCell ref="I29"/>
-    <mergeCell ref="T27"/>
+    <mergeCell ref="M62"/>
+    <mergeCell ref="T52"/>
+    <mergeCell ref="G44"/>
+    <mergeCell ref="N65"/>
     <mergeCell ref="O3"/>
-    <mergeCell ref="Q3"/>
-    <mergeCell ref="I6"/>
-    <mergeCell ref="Q21"/>
-    <mergeCell ref="S21"/>
+    <mergeCell ref="F63"/>
+    <mergeCell ref="M59"/>
     <mergeCell ref="K24"/>
     <mergeCell ref="N25"/>
-    <mergeCell ref="P25"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="U46"/>
     <mergeCell ref="E4"/>
-    <mergeCell ref="I26"/>
-    <mergeCell ref="F30"/>
-    <mergeCell ref="T9"/>
+    <mergeCell ref="K51"/>
+    <mergeCell ref="U48"/>
+    <mergeCell ref="U41"/>
     <mergeCell ref="V9"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="J20"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="H69"/>
     <mergeCell ref="L20"/>
-    <mergeCell ref="T11"/>
+    <mergeCell ref="U43"/>
     <mergeCell ref="S10"/>
     <mergeCell ref="V11"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="J22"/>
-    <mergeCell ref="N13"/>
-    <mergeCell ref="I17"/>
+    <mergeCell ref="K42"/>
     <mergeCell ref="L22"/>
-    <mergeCell ref="P13"/>
-    <mergeCell ref="K17"/>
-    <mergeCell ref="N15"/>
-    <mergeCell ref="I19"/>
-    <mergeCell ref="P15"/>
-    <mergeCell ref="K19"/>
-    <mergeCell ref="K6"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="R8"/>
-    <mergeCell ref="U9"/>
-    <mergeCell ref="T24"/>
-    <mergeCell ref="W25"/>
-    <mergeCell ref="O28"/>
-    <mergeCell ref="Q28"/>
-    <mergeCell ref="P10"/>
-    <mergeCell ref="R10"/>
-    <mergeCell ref="F7"/>
-    <mergeCell ref="O30"/>
-    <mergeCell ref="O29"/>
-    <mergeCell ref="Q29"/>
-    <mergeCell ref="Q23"/>
+    <mergeCell ref="O60"/>
+    <mergeCell ref="R58"/>
+    <mergeCell ref="E50"/>
+    <mergeCell ref="R60"/>
+    <mergeCell ref="E52"/>
+    <mergeCell ref="I32"/>
+    <mergeCell ref="L33"/>
     <mergeCell ref="S23"/>
-    <mergeCell ref="F8"/>
-    <mergeCell ref="Q6"/>
+    <mergeCell ref="O44"/>
+    <mergeCell ref="W31"/>
+    <mergeCell ref="L35"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="S6"/>
-    <mergeCell ref="R17"/>
-    <mergeCell ref="N28"/>
+    <mergeCell ref="R42"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -31,7 +31,7 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -51,6 +51,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -108,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -119,6 +124,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -487,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +514,24 @@
       <c r="D1" s="2" t="n"/>
       <c r="E1" s="2" t="n"/>
       <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -522,10 +548,100 @@
       <c r="D2" s="4" t="n"/>
       <c r="E2" s="5" t="inlineStr">
         <is>
+          <t>1. O membro coopera com os seus colegas para alcançar objetivos comuns que tenham sido estabelecidos.</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>2. O membro assume, em regra, objetivos ambiciosos e exigentes, embora realistas, para si e para os seus colegas.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>3. O membro compromete-se com os resultados a alcançar de acordo com os objetivos estratégicos do departamento e júnior empresa, e é persistente perante obstáculos e dificuldades.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>4. O membro aceita correr riscos para atingir os resultados desejados e assume as responsabilidades pelo sucesso ou fracasso dos mesmos.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>5. O membro tem noção do que é prioritário para uma tarefa, respondendo, em regra, prontamente nos momentos de pressão e urgência.</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>6. O membro procura desenvolver o seu conhecimento técnico nas áreas relevantes para o seu departamento ou projeto em que esteja envolvido, promovendo um autodesenvolvimento contínuo.</t>
+        </is>
+      </c>
+      <c r="K2" s="6" t="inlineStr">
+        <is>
+          <t>1. O membro é capaz planear e organizar de forma eficiente atividades recreativas e/ou formações internas, de forma a que tenham sucesso.</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>2. O membro consegue elaborar relatórios de avaliações, de questionários de satisfação, etc., de uma forma clara e eficaz.</t>
+        </is>
+      </c>
+      <c r="M2" s="6" t="inlineStr">
+        <is>
+          <t>3. O membro acompanha as suas tarefas individuais recorrentes (p.ex: aniversários, avaliação motivacional, newsletters, etc.) de forma a confirmar que está tudo sob controlo.</t>
+        </is>
+      </c>
+      <c r="N2" s="6" t="inlineStr">
+        <is>
+          <t>4. O membro exibe criatividade durante a elaboração de atividades recreativas, planeamento de Recrutamento e Retiro, iniciativas internas, etc.</t>
+        </is>
+      </c>
+      <c r="O2" s="6" t="inlineStr">
+        <is>
+          <t>5. O membro lida com conflitos internos de uma forma preponderada, tendo em mente o melhor interesse dos membros e a estabilidade da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="P2" s="6" t="inlineStr">
+        <is>
+          <t>6. O membro motiva os outros membros a participarem nas atividades internas da EPIC Júnior, bem como nas externas, da JE ou de outras Júnior Empresas.</t>
+        </is>
+      </c>
+      <c r="Q2" s="5" t="inlineStr">
+        <is>
+          <t>1. O membro sabe comportar-se de uma forma correta e adequada e de uma maneira profissional e respeitosa, em situações em que representa a EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="R2" s="5" t="inlineStr">
+        <is>
+          <t>2. O membro respeita os valores, os membros, as instalações e todos os recursos da EPIC Júnior.</t>
+        </is>
+      </c>
+      <c r="S2" s="6" t="inlineStr">
+        <is>
+          <t>1. O membro cumpre os objetivos das tarefas pelos quais é responsável.</t>
+        </is>
+      </c>
+      <c r="T2" s="6" t="inlineStr">
+        <is>
+          <t>2. O membro respeita o prazo de entrega das suas tarefas.</t>
+        </is>
+      </c>
+      <c r="U2" s="6" t="inlineStr">
+        <is>
+          <t>3. O membro, caso necessário, desenvolve conhecimento técnico especifico para completar a sua tarefa.</t>
+        </is>
+      </c>
+      <c r="V2" s="6" t="inlineStr">
+        <is>
           <t>4. Em tarefas de grupo, o membro é capaz de comunicar com os seus colegas de forma clara e concisa, conseguindo defender a sua opinião mas respeitando a opinião dos outros, mantendo uma boa relação interpessoal.</t>
         </is>
       </c>
-      <c r="F2" s="5" t="inlineStr">
+      <c r="W2" s="6" t="inlineStr">
+        <is>
+          <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
+        </is>
+      </c>
+      <c r="X2" s="6" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
@@ -537,112 +653,544 @@
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n"/>
+      <c r="B3" s="7" t="n"/>
       <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D3" s="6" t="n"/>
+      <c r="D3" s="7" t="n"/>
       <c r="E3" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R3" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X3" s="6" t="inlineStr">
         <is>
           <t>Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n"/>
+      <c r="A4" s="7" t="n"/>
       <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D4" s="6" t="n"/>
+      <c r="D4" s="7" t="n"/>
       <c r="E4" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F4" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X4" s="7" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n"/>
+      <c r="A5" s="7" t="n"/>
       <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D5" s="6" t="n"/>
+      <c r="D5" s="7" t="n"/>
       <c r="E5" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n"/>
+      <c r="A6" s="7" t="n"/>
       <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D6" s="6" t="n"/>
+      <c r="D6" s="7" t="n"/>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="6" t="n"/>
+      <c r="F6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n"/>
+      <c r="A7" s="7" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D7" s="6" t="n"/>
+      <c r="D7" s="7" t="n"/>
       <c r="E7" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F7" s="6" t="n"/>
+      <c r="F7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n"/>
+      <c r="A8" s="7" t="n"/>
       <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n"/>
+      <c r="D8" s="7" t="n"/>
       <c r="E8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="6" t="n"/>
+      <c r="F8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n"/>
+      <c r="A9" s="7" t="n"/>
       <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D9" s="6" t="n"/>
+      <c r="D9" s="7" t="n"/>
       <c r="E9" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F9" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n"/>
+      <c r="A10" s="7" t="n"/>
       <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D10" s="6" t="n"/>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
@@ -650,112 +1198,544 @@
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n"/>
+      <c r="B11" s="7" t="n"/>
       <c r="C11" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D11" s="6" t="n"/>
+      <c r="D11" s="7" t="n"/>
       <c r="E11" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X11" s="6" t="inlineStr">
         <is>
           <t>Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n"/>
+      <c r="A12" s="7" t="n"/>
       <c r="C12" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D12" s="6" t="n"/>
+      <c r="D12" s="7" t="n"/>
       <c r="E12" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n"/>
+      <c r="A13" s="7" t="n"/>
       <c r="C13" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D13" s="6" t="n"/>
+      <c r="D13" s="7" t="n"/>
       <c r="E13" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F13" s="6" t="n"/>
+      <c r="F13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n"/>
+      <c r="A14" s="7" t="n"/>
       <c r="C14" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D14" s="6" t="n"/>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F14" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n"/>
+      <c r="A15" s="7" t="n"/>
       <c r="C15" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D15" s="6" t="n"/>
+      <c r="D15" s="7" t="n"/>
       <c r="E15" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="6" t="n"/>
+      <c r="F15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n"/>
+      <c r="A16" s="7" t="n"/>
       <c r="C16" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D16" s="6" t="n"/>
+      <c r="D16" s="7" t="n"/>
       <c r="E16" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F16" s="6" t="n"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n"/>
+      <c r="A17" s="7" t="n"/>
       <c r="C17" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D17" s="6" t="n"/>
+      <c r="D17" s="7" t="n"/>
       <c r="E17" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="6" t="n"/>
+      <c r="F17" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n"/>
+      <c r="A18" s="7" t="n"/>
       <c r="C18" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D18" s="6" t="n"/>
+      <c r="D18" s="7" t="n"/>
       <c r="E18" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6" t="n"/>
+        <v>6</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
@@ -763,112 +1743,544 @@
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n"/>
+      <c r="B19" s="7" t="n"/>
       <c r="C19" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D19" s="6" t="n"/>
+      <c r="D19" s="7" t="n"/>
       <c r="E19" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="5" t="inlineStr">
+      <c r="F19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X19" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n"/>
+      <c r="A20" s="7" t="n"/>
       <c r="C20" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D20" s="6" t="n"/>
+      <c r="D20" s="7" t="n"/>
       <c r="E20" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F20" s="6" t="n"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="X20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n"/>
+      <c r="A21" s="7" t="n"/>
       <c r="C21" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D21" s="6" t="n"/>
+      <c r="D21" s="7" t="n"/>
       <c r="E21" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F21" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n"/>
+      <c r="A22" s="7" t="n"/>
       <c r="C22" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D22" s="6" t="n"/>
+      <c r="D22" s="7" t="n"/>
       <c r="E22" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F22" s="6" t="n"/>
+      <c r="F22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n"/>
+      <c r="A23" s="7" t="n"/>
       <c r="C23" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D23" s="6" t="n"/>
+      <c r="D23" s="7" t="n"/>
       <c r="E23" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F23" s="6" t="n"/>
+      <c r="F23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n"/>
+      <c r="A24" s="7" t="n"/>
       <c r="C24" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D24" s="6" t="n"/>
+      <c r="D24" s="7" t="n"/>
       <c r="E24" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="6" t="n"/>
+      <c r="F24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n"/>
+      <c r="A25" s="7" t="n"/>
       <c r="C25" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D25" s="6" t="n"/>
+      <c r="D25" s="7" t="n"/>
       <c r="E25" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="6" t="n"/>
+      <c r="F25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n"/>
+      <c r="A26" s="7" t="n"/>
       <c r="C26" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D26" s="6" t="n"/>
+      <c r="D26" s="7" t="n"/>
       <c r="E26" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F26" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X26" s="7" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
@@ -876,112 +2288,544 @@
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n"/>
+      <c r="B27" s="7" t="n"/>
       <c r="C27" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D27" s="6" t="n"/>
+      <c r="D27" s="7" t="n"/>
       <c r="E27" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X27" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n"/>
+      <c r="A28" s="7" t="n"/>
       <c r="C28" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D28" s="6" t="n"/>
+      <c r="D28" s="7" t="n"/>
       <c r="E28" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="6" t="n"/>
+      <c r="F28" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I28" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T28" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n"/>
+      <c r="A29" s="7" t="n"/>
       <c r="C29" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D29" s="6" t="n"/>
+      <c r="D29" s="7" t="n"/>
       <c r="E29" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F29" s="6" t="n"/>
+      <c r="F29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I29" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T29" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n"/>
+      <c r="A30" s="7" t="n"/>
       <c r="C30" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D30" s="6" t="n"/>
+      <c r="D30" s="7" t="n"/>
       <c r="E30" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F30" s="6" t="n"/>
+        <v>6</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="n"/>
+      <c r="A31" s="7" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D31" s="6" t="n"/>
+      <c r="D31" s="7" t="n"/>
       <c r="E31" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F31" s="6" t="n"/>
+      <c r="F31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n"/>
+      <c r="A32" s="7" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D32" s="6" t="n"/>
+      <c r="D32" s="7" t="n"/>
       <c r="E32" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="6" t="n"/>
+      <c r="F32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I32" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W32" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n"/>
+      <c r="A33" s="7" t="n"/>
       <c r="C33" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D33" s="6" t="n"/>
+      <c r="D33" s="7" t="n"/>
       <c r="E33" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F33" s="6" t="n"/>
+      <c r="F33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I33" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K33" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W33" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n"/>
+      <c r="A34" s="7" t="n"/>
       <c r="C34" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D34" s="6" t="n"/>
+      <c r="D34" s="7" t="n"/>
       <c r="E34" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F34" s="6" t="n"/>
+      <c r="F34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T34" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W34" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X34" s="7" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
@@ -989,112 +2833,544 @@
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="B35" s="6" t="n"/>
+      <c r="B35" s="7" t="n"/>
       <c r="C35" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D35" s="6" t="n"/>
+      <c r="D35" s="7" t="n"/>
       <c r="E35" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F35" s="5" t="inlineStr">
+      <c r="F35" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P35" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W35" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X35" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n"/>
+      <c r="A36" s="7" t="n"/>
       <c r="C36" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D36" s="6" t="n"/>
+      <c r="D36" s="7" t="n"/>
       <c r="E36" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F36" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K36" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O36" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U36" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V36" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W36" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n"/>
+      <c r="A37" s="7" t="n"/>
       <c r="C37" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D37" s="6" t="n"/>
+      <c r="D37" s="7" t="n"/>
       <c r="E37" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F37" s="6" t="n"/>
+      <c r="F37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W37" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n"/>
+      <c r="A38" s="7" t="n"/>
       <c r="C38" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D38" s="6" t="n"/>
+      <c r="D38" s="7" t="n"/>
       <c r="E38" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F38" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W38" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n"/>
+      <c r="A39" s="7" t="n"/>
       <c r="C39" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D39" s="6" t="n"/>
+      <c r="D39" s="7" t="n"/>
       <c r="E39" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F39" s="6" t="n"/>
+      <c r="F39" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W39" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n"/>
+      <c r="A40" s="7" t="n"/>
       <c r="C40" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D40" s="6" t="n"/>
+      <c r="D40" s="7" t="n"/>
       <c r="E40" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F40" s="6" t="n"/>
+      <c r="F40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P40" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W40" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n"/>
+      <c r="A41" s="7" t="n"/>
       <c r="C41" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D41" s="6" t="n"/>
+      <c r="D41" s="7" t="n"/>
       <c r="E41" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F41" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R41" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V41" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W41" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n"/>
+      <c r="A42" s="7" t="n"/>
       <c r="C42" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D42" s="6" t="n"/>
+      <c r="D42" s="7" t="n"/>
       <c r="E42" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F42" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N42" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P42" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T42" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V42" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W42" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X42" s="7" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
@@ -1102,112 +3378,544 @@
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="B43" s="6" t="n"/>
+      <c r="B43" s="7" t="n"/>
       <c r="C43" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D43" s="6" t="n"/>
+      <c r="D43" s="7" t="n"/>
       <c r="E43" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F43" s="5" t="inlineStr">
+      <c r="F43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P43" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R43" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W43" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X43" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n"/>
+      <c r="A44" s="7" t="n"/>
       <c r="C44" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D44" s="6" t="n"/>
+      <c r="D44" s="7" t="n"/>
       <c r="E44" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F44" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P44" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W44" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n"/>
+      <c r="A45" s="7" t="n"/>
       <c r="C45" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D45" s="6" t="n"/>
+      <c r="D45" s="7" t="n"/>
       <c r="E45" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F45" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O45" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P45" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W45" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n"/>
+      <c r="A46" s="7" t="n"/>
       <c r="C46" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D46" s="6" t="n"/>
+      <c r="D46" s="7" t="n"/>
       <c r="E46" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F46" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F46" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O46" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W46" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n"/>
+      <c r="A47" s="7" t="n"/>
       <c r="C47" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D47" s="6" t="n"/>
+      <c r="D47" s="7" t="n"/>
       <c r="E47" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F47" s="6" t="n"/>
+      <c r="F47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P47" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W47" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n"/>
+      <c r="A48" s="7" t="n"/>
       <c r="C48" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D48" s="6" t="n"/>
+      <c r="D48" s="7" t="n"/>
       <c r="E48" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F48" s="6" t="n"/>
+      <c r="F48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P48" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W48" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n"/>
+      <c r="A49" s="7" t="n"/>
       <c r="C49" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D49" s="6" t="n"/>
+      <c r="D49" s="7" t="n"/>
       <c r="E49" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F49" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K49" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O49" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P49" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W49" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n"/>
+      <c r="A50" s="7" t="n"/>
       <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D50" s="6" t="n"/>
+      <c r="D50" s="7" t="n"/>
       <c r="E50" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F50" s="6" t="n"/>
+      <c r="F50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P50" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W50" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="X50" s="7" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -1215,112 +3923,544 @@
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="B51" s="6" t="n"/>
+      <c r="B51" s="7" t="n"/>
       <c r="C51" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D51" s="6" t="n"/>
+      <c r="D51" s="7" t="n"/>
       <c r="E51" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P51" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W51" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X51" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n"/>
+      <c r="A52" s="7" t="n"/>
       <c r="C52" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D52" s="6" t="n"/>
+      <c r="D52" s="7" t="n"/>
       <c r="E52" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F52" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T52" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W52" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n"/>
+      <c r="A53" s="7" t="n"/>
       <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D53" s="6" t="n"/>
+      <c r="D53" s="7" t="n"/>
       <c r="E53" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F53" s="6" t="n"/>
+      <c r="F53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N53" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W53" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n"/>
+      <c r="A54" s="7" t="n"/>
       <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D54" s="6" t="n"/>
+      <c r="D54" s="7" t="n"/>
       <c r="E54" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F54" s="6" t="n"/>
+      <c r="F54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n"/>
+      <c r="A55" s="7" t="n"/>
       <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D55" s="6" t="n"/>
+      <c r="D55" s="7" t="n"/>
       <c r="E55" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F55" s="6" t="n"/>
+      <c r="F55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N55" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W55" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n"/>
+      <c r="A56" s="7" t="n"/>
       <c r="C56" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D56" s="6" t="n"/>
+      <c r="D56" s="7" t="n"/>
       <c r="E56" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F56" s="6" t="n"/>
+      <c r="F56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N56" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P56" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W56" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n"/>
+      <c r="A57" s="7" t="n"/>
       <c r="C57" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D57" s="6" t="n"/>
+      <c r="D57" s="7" t="n"/>
       <c r="E57" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F57" s="6" t="n"/>
+      <c r="F57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P57" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W57" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n"/>
+      <c r="A58" s="7" t="n"/>
       <c r="C58" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D58" s="6" t="n"/>
+      <c r="D58" s="7" t="n"/>
       <c r="E58" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F58" s="6" t="n"/>
+      <c r="F58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N58" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P58" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W58" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X58" s="7" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
@@ -1328,112 +4468,544 @@
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="B59" s="6" t="n"/>
+      <c r="B59" s="7" t="n"/>
       <c r="C59" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D59" s="6" t="n"/>
+      <c r="D59" s="7" t="n"/>
       <c r="E59" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F59" s="5" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="F59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N59" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T59" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V59" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W59" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X59" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n"/>
+      <c r="A60" s="7" t="n"/>
       <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D60" s="6" t="n"/>
+      <c r="D60" s="7" t="n"/>
       <c r="E60" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F60" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O60" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U60" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W60" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="X60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n"/>
+      <c r="A61" s="7" t="n"/>
       <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D61" s="6" t="n"/>
+      <c r="D61" s="7" t="n"/>
       <c r="E61" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F61" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W61" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n"/>
+      <c r="A62" s="7" t="n"/>
       <c r="C62" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D62" s="6" t="n"/>
+      <c r="D62" s="7" t="n"/>
       <c r="E62" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F62" s="6" t="n"/>
+      <c r="F62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R62" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T62" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W62" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="n"/>
+      <c r="A63" s="7" t="n"/>
       <c r="C63" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D63" s="6" t="n"/>
+      <c r="D63" s="7" t="n"/>
       <c r="E63" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F63" s="6" t="n"/>
+      <c r="F63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N63" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P63" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R63" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W63" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="n"/>
+      <c r="A64" s="7" t="n"/>
       <c r="C64" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D64" s="6" t="n"/>
+      <c r="D64" s="7" t="n"/>
       <c r="E64" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F64" s="6" t="n"/>
+      <c r="F64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N64" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P64" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R64" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U64" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W64" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="n"/>
+      <c r="A65" s="7" t="n"/>
       <c r="C65" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D65" s="6" t="n"/>
+      <c r="D65" s="7" t="n"/>
       <c r="E65" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F65" s="6" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="F65" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G65" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P65" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T65" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="V65" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W65" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n"/>
+      <c r="A66" s="7" t="n"/>
       <c r="C66" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D66" s="6" t="n"/>
+      <c r="D66" s="7" t="n"/>
       <c r="E66" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F66" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J66" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L66" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W66" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="X66" s="7" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
@@ -1441,282 +5013,2028 @@
           <t>Inês Bastos</t>
         </is>
       </c>
-      <c r="B67" s="6" t="n"/>
+      <c r="B67" s="7" t="n"/>
       <c r="C67" s="5" t="inlineStr">
         <is>
           <t>Catarina Milheiro</t>
         </is>
       </c>
-      <c r="D67" s="6" t="n"/>
+      <c r="D67" s="7" t="n"/>
       <c r="E67" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F67" s="5" t="inlineStr">
+      <c r="F67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P67" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R67" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U67" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W67" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X67" s="6" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="n"/>
+      <c r="A68" s="7" t="n"/>
       <c r="C68" s="5" t="inlineStr">
         <is>
           <t>Gonçalo Figueiredo</t>
         </is>
       </c>
-      <c r="D68" s="6" t="n"/>
+      <c r="D68" s="7" t="n"/>
       <c r="E68" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F68" s="6" t="n"/>
+      <c r="F68" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O68" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P68" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U68" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W68" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="n"/>
+      <c r="A69" s="7" t="n"/>
       <c r="C69" s="5" t="inlineStr">
         <is>
           <t>Inês Cabral</t>
         </is>
       </c>
-      <c r="D69" s="6" t="n"/>
+      <c r="D69" s="7" t="n"/>
       <c r="E69" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F69" s="6" t="n"/>
+      <c r="F69" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L69" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M69" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O69" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P69" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U69" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="W69" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="n"/>
+      <c r="A70" s="7" t="n"/>
       <c r="C70" s="5" t="inlineStr">
         <is>
           <t>Mariana Arezes</t>
         </is>
       </c>
-      <c r="D70" s="6" t="n"/>
+      <c r="D70" s="7" t="n"/>
       <c r="E70" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F70" s="6" t="n"/>
+      <c r="F70" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K70" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P70" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R70" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U70" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W70" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="n"/>
+      <c r="A71" s="7" t="n"/>
       <c r="C71" s="5" t="inlineStr">
         <is>
           <t>Mariana Oliveira</t>
         </is>
       </c>
-      <c r="D71" s="6" t="n"/>
+      <c r="D71" s="7" t="n"/>
       <c r="E71" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F71" s="6" t="n"/>
+      <c r="F71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R71" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U71" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W71" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="n"/>
+      <c r="A72" s="7" t="n"/>
       <c r="C72" s="5" t="inlineStr">
         <is>
           <t>Paula Ferreira</t>
         </is>
       </c>
-      <c r="D72" s="6" t="n"/>
+      <c r="D72" s="7" t="n"/>
       <c r="E72" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="F72" s="6" t="n"/>
+      <c r="F72" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J72" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="L72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P72" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R72" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U72" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="W72" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="n"/>
+      <c r="A73" s="7" t="n"/>
       <c r="C73" s="5" t="inlineStr">
         <is>
           <t>Paulo Vieira</t>
         </is>
       </c>
-      <c r="D73" s="6" t="n"/>
+      <c r="D73" s="7" t="n"/>
       <c r="E73" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="F73" s="6" t="n"/>
+      <c r="F73" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J73" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R73" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="n"/>
+      <c r="A74" s="7" t="n"/>
       <c r="C74" s="5" t="inlineStr">
         <is>
           <t>Rafaela Carvalho</t>
         </is>
       </c>
-      <c r="D74" s="6" t="n"/>
+      <c r="D74" s="7" t="n"/>
       <c r="E74" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F74" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="F74" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I74" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J74" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L74" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O74" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="P74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R74" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="U74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="W74" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="X74" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="1481">
+    <mergeCell ref="T17"/>
     <mergeCell ref="E70"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E26"/>
-    <mergeCell ref="E57"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E7"/>
-    <mergeCell ref="E72"/>
+    <mergeCell ref="J3"/>
+    <mergeCell ref="L59"/>
+    <mergeCell ref="T19"/>
+    <mergeCell ref="T46"/>
+    <mergeCell ref="I50"/>
+    <mergeCell ref="W57"/>
+    <mergeCell ref="L61"/>
+    <mergeCell ref="T48"/>
+    <mergeCell ref="T20"/>
+    <mergeCell ref="T14"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="S42"/>
+    <mergeCell ref="K20"/>
+    <mergeCell ref="U17"/>
+    <mergeCell ref="U11"/>
+    <mergeCell ref="I47"/>
+    <mergeCell ref="K22"/>
+    <mergeCell ref="T74"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="U12"/>
+    <mergeCell ref="T40"/>
+    <mergeCell ref="J41"/>
+    <mergeCell ref="J16"/>
+    <mergeCell ref="R3"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="W70"/>
+    <mergeCell ref="J43"/>
+    <mergeCell ref="K38"/>
+    <mergeCell ref="N49"/>
+    <mergeCell ref="K4"/>
+    <mergeCell ref="Q32"/>
+    <mergeCell ref="J67"/>
+    <mergeCell ref="K33"/>
+    <mergeCell ref="R29"/>
+    <mergeCell ref="U65"/>
+    <mergeCell ref="J69"/>
+    <mergeCell ref="K35"/>
+    <mergeCell ref="M70"/>
+    <mergeCell ref="R31"/>
+    <mergeCell ref="T59"/>
+    <mergeCell ref="U25"/>
+    <mergeCell ref="G53"/>
+    <mergeCell ref="Q50"/>
+    <mergeCell ref="I3"/>
+    <mergeCell ref="L4"/>
+    <mergeCell ref="R51"/>
+    <mergeCell ref="K59"/>
+    <mergeCell ref="S19"/>
+    <mergeCell ref="O40"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="K61"/>
+    <mergeCell ref="S20"/>
+    <mergeCell ref="H24"/>
+    <mergeCell ref="H18"/>
+    <mergeCell ref="S22"/>
+    <mergeCell ref="H26"/>
+    <mergeCell ref="R44"/>
+    <mergeCell ref="L57"/>
+    <mergeCell ref="I41"/>
+    <mergeCell ref="I16"/>
+    <mergeCell ref="S38"/>
+    <mergeCell ref="I43"/>
+    <mergeCell ref="P39"/>
+    <mergeCell ref="S40"/>
+    <mergeCell ref="S33"/>
+    <mergeCell ref="H37"/>
+    <mergeCell ref="O58"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="U8"/>
+    <mergeCell ref="F61"/>
+    <mergeCell ref="J12"/>
+    <mergeCell ref="T72"/>
+    <mergeCell ref="S35"/>
+    <mergeCell ref="Q2"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="U10"/>
+    <mergeCell ref="I69"/>
+    <mergeCell ref="L70"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="W68"/>
+    <mergeCell ref="P50"/>
+    <mergeCell ref="T58"/>
+    <mergeCell ref="P52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="J65"/>
+    <mergeCell ref="R27"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="R20"/>
+    <mergeCell ref="U21"/>
+    <mergeCell ref="G24"/>
+    <mergeCell ref="J25"/>
+    <mergeCell ref="Q46"/>
+    <mergeCell ref="R22"/>
+    <mergeCell ref="G51"/>
+    <mergeCell ref="G26"/>
+    <mergeCell ref="Q48"/>
+    <mergeCell ref="K57"/>
+    <mergeCell ref="Q41"/>
+    <mergeCell ref="R9"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="H20"/>
+    <mergeCell ref="Q43"/>
+    <mergeCell ref="O10"/>
+    <mergeCell ref="R11"/>
+    <mergeCell ref="R38"/>
+    <mergeCell ref="G42"/>
+    <mergeCell ref="U49"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="O39"/>
+    <mergeCell ref="R40"/>
+    <mergeCell ref="K60"/>
+    <mergeCell ref="O5"/>
+    <mergeCell ref="H51"/>
+    <mergeCell ref="Q67"/>
+    <mergeCell ref="G37"/>
+    <mergeCell ref="N58"/>
+    <mergeCell ref="I12"/>
+    <mergeCell ref="Q69"/>
+    <mergeCell ref="R35"/>
+    <mergeCell ref="I14"/>
+    <mergeCell ref="K70"/>
+    <mergeCell ref="R66"/>
+    <mergeCell ref="E32"/>
+    <mergeCell ref="H33"/>
+    <mergeCell ref="R68"/>
+    <mergeCell ref="O23"/>
+    <mergeCell ref="H35"/>
+    <mergeCell ref="F29"/>
+    <mergeCell ref="S62"/>
+    <mergeCell ref="O18"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="H59"/>
+    <mergeCell ref="F24"/>
+    <mergeCell ref="I25"/>
+    <mergeCell ref="P46"/>
+    <mergeCell ref="P21"/>
+    <mergeCell ref="S57"/>
+    <mergeCell ref="F32"/>
+    <mergeCell ref="H61"/>
+    <mergeCell ref="F26"/>
+    <mergeCell ref="P48"/>
+    <mergeCell ref="P23"/>
+    <mergeCell ref="Q9"/>
+    <mergeCell ref="E45"/>
+    <mergeCell ref="O42"/>
+    <mergeCell ref="G20"/>
+    <mergeCell ref="T56"/>
+    <mergeCell ref="Q17"/>
+    <mergeCell ref="P43"/>
+    <mergeCell ref="Q11"/>
+    <mergeCell ref="W39"/>
+    <mergeCell ref="G22"/>
+    <mergeCell ref="P74"/>
+    <mergeCell ref="F44"/>
+    <mergeCell ref="A27:B34"/>
+    <mergeCell ref="Q12"/>
+    <mergeCell ref="X2"/>
+    <mergeCell ref="F16"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="P69"/>
+    <mergeCell ref="S70"/>
+    <mergeCell ref="M60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="J49"/>
+    <mergeCell ref="W50"/>
+    <mergeCell ref="G33"/>
+    <mergeCell ref="N29"/>
+    <mergeCell ref="Q65"/>
+    <mergeCell ref="A11:B18"/>
+    <mergeCell ref="G35"/>
+    <mergeCell ref="N31"/>
+    <mergeCell ref="X43:X50"/>
+    <mergeCell ref="M50"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="R64"/>
+    <mergeCell ref="G59"/>
+    <mergeCell ref="X67:X74"/>
+    <mergeCell ref="R57"/>
+    <mergeCell ref="E5"/>
+    <mergeCell ref="G67"/>
+    <mergeCell ref="V8"/>
+    <mergeCell ref="G61"/>
+    <mergeCell ref="O20"/>
+    <mergeCell ref="V10"/>
+    <mergeCell ref="N42"/>
+    <mergeCell ref="O22"/>
+    <mergeCell ref="P17"/>
+    <mergeCell ref="V39"/>
+    <mergeCell ref="W7"/>
+    <mergeCell ref="N44"/>
+    <mergeCell ref="H57"/>
+    <mergeCell ref="F22"/>
+    <mergeCell ref="O51"/>
+    <mergeCell ref="P19"/>
+    <mergeCell ref="O47"/>
+    <mergeCell ref="U58"/>
+    <mergeCell ref="P12"/>
     <mergeCell ref="E41"/>
+    <mergeCell ref="W2"/>
     <mergeCell ref="E16"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="O38"/>
+    <mergeCell ref="P14"/>
     <mergeCell ref="E43"/>
     <mergeCell ref="E18"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E58"/>
-    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="V21"/>
+    <mergeCell ref="I49"/>
+    <mergeCell ref="L32"/>
+    <mergeCell ref="O33"/>
+    <mergeCell ref="V23"/>
+    <mergeCell ref="F40"/>
+    <mergeCell ref="T47"/>
+    <mergeCell ref="F12"/>
+    <mergeCell ref="P72"/>
+    <mergeCell ref="M2"/>
+    <mergeCell ref="P65"/>
+    <mergeCell ref="F41"/>
+    <mergeCell ref="E69"/>
+    <mergeCell ref="F35"/>
+    <mergeCell ref="H70"/>
+    <mergeCell ref="M31"/>
+    <mergeCell ref="O59"/>
+    <mergeCell ref="W46"/>
+    <mergeCell ref="L50"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="O61"/>
+    <mergeCell ref="W48"/>
+    <mergeCell ref="L52"/>
+    <mergeCell ref="R2"/>
+    <mergeCell ref="N27"/>
+    <mergeCell ref="N20"/>
+    <mergeCell ref="F69"/>
+    <mergeCell ref="F25"/>
+    <mergeCell ref="N22"/>
+    <mergeCell ref="W74"/>
+    <mergeCell ref="T65"/>
+    <mergeCell ref="G57"/>
+    <mergeCell ref="V6"/>
+    <mergeCell ref="N38"/>
+    <mergeCell ref="G58"/>
+    <mergeCell ref="U28"/>
+    <mergeCell ref="Q49"/>
+    <mergeCell ref="K39"/>
+    <mergeCell ref="N40"/>
+    <mergeCell ref="U29"/>
+    <mergeCell ref="U23"/>
+    <mergeCell ref="J58"/>
+    <mergeCell ref="E12"/>
+    <mergeCell ref="N35"/>
+    <mergeCell ref="L2"/>
+    <mergeCell ref="U31"/>
+    <mergeCell ref="W6"/>
+    <mergeCell ref="E14"/>
+    <mergeCell ref="G70"/>
+    <mergeCell ref="N66"/>
+    <mergeCell ref="K21"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="V19"/>
+    <mergeCell ref="N68"/>
+    <mergeCell ref="K50"/>
+    <mergeCell ref="N61"/>
+    <mergeCell ref="W16"/>
+    <mergeCell ref="K58"/>
+    <mergeCell ref="K52"/>
+    <mergeCell ref="M27"/>
+    <mergeCell ref="W18"/>
+    <mergeCell ref="W17"/>
+    <mergeCell ref="W11"/>
+    <mergeCell ref="E25"/>
+    <mergeCell ref="L21"/>
+    <mergeCell ref="O57"/>
+    <mergeCell ref="W19"/>
+    <mergeCell ref="V47"/>
+    <mergeCell ref="L48"/>
+    <mergeCell ref="V38"/>
+    <mergeCell ref="X3:X10"/>
+    <mergeCell ref="L43"/>
+    <mergeCell ref="P56"/>
+    <mergeCell ref="M11"/>
+    <mergeCell ref="S39"/>
+    <mergeCell ref="V63"/>
+    <mergeCell ref="P49"/>
+    <mergeCell ref="L74"/>
+    <mergeCell ref="M40"/>
+    <mergeCell ref="M12"/>
+    <mergeCell ref="W72"/>
+    <mergeCell ref="T2"/>
+    <mergeCell ref="M41"/>
+    <mergeCell ref="L69"/>
+    <mergeCell ref="N9"/>
+    <mergeCell ref="O70"/>
+    <mergeCell ref="V66"/>
+    <mergeCell ref="F49"/>
+    <mergeCell ref="K10"/>
+    <mergeCell ref="M66"/>
+    <mergeCell ref="S50"/>
+    <mergeCell ref="N4"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E33"/>
+    <mergeCell ref="J29"/>
+    <mergeCell ref="M68"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="U27"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="N62"/>
+    <mergeCell ref="J24"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N64"/>
+    <mergeCell ref="J26"/>
+    <mergeCell ref="N57"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="K48"/>
+    <mergeCell ref="K23"/>
+    <mergeCell ref="U55"/>
+    <mergeCell ref="U38"/>
+    <mergeCell ref="J42"/>
+    <mergeCell ref="L17"/>
+    <mergeCell ref="R39"/>
+    <mergeCell ref="U40"/>
+    <mergeCell ref="J44"/>
+    <mergeCell ref="L19"/>
+    <mergeCell ref="J37"/>
+    <mergeCell ref="L12"/>
+    <mergeCell ref="V72"/>
+    <mergeCell ref="S8"/>
+    <mergeCell ref="S2"/>
+    <mergeCell ref="L14"/>
+    <mergeCell ref="U66"/>
+    <mergeCell ref="R21"/>
+    <mergeCell ref="K67"/>
+    <mergeCell ref="E49"/>
+    <mergeCell ref="H32"/>
+    <mergeCell ref="U68"/>
+    <mergeCell ref="R50"/>
+    <mergeCell ref="I29"/>
+    <mergeCell ref="L65"/>
+    <mergeCell ref="V62"/>
+    <mergeCell ref="T27"/>
+    <mergeCell ref="V56"/>
+    <mergeCell ref="I31"/>
+    <mergeCell ref="S46"/>
+    <mergeCell ref="S21"/>
+    <mergeCell ref="H50"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="M64"/>
+    <mergeCell ref="I26"/>
+    <mergeCell ref="S48"/>
+    <mergeCell ref="E51"/>
+    <mergeCell ref="W54"/>
+    <mergeCell ref="T9"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="M65"/>
+    <mergeCell ref="J20"/>
+    <mergeCell ref="W56"/>
+    <mergeCell ref="T11"/>
+    <mergeCell ref="I42"/>
+    <mergeCell ref="J22"/>
+    <mergeCell ref="K17"/>
+    <mergeCell ref="S74"/>
+    <mergeCell ref="I44"/>
+    <mergeCell ref="J51"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="P58"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="R8"/>
+    <mergeCell ref="U9"/>
+    <mergeCell ref="J38"/>
+    <mergeCell ref="Q28"/>
+    <mergeCell ref="M49"/>
+    <mergeCell ref="R10"/>
+    <mergeCell ref="G39"/>
+    <mergeCell ref="J40"/>
+    <mergeCell ref="Q29"/>
+    <mergeCell ref="T68"/>
+    <mergeCell ref="Q23"/>
+    <mergeCell ref="J35"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="Q31"/>
+    <mergeCell ref="S6"/>
+    <mergeCell ref="U62"/>
+    <mergeCell ref="R17"/>
+    <mergeCell ref="G65"/>
+    <mergeCell ref="J66"/>
+    <mergeCell ref="H3"/>
+    <mergeCell ref="U64"/>
+    <mergeCell ref="R46"/>
+    <mergeCell ref="G50"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="J61"/>
+    <mergeCell ref="R48"/>
+    <mergeCell ref="G52"/>
+    <mergeCell ref="I27"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="Q42"/>
+    <mergeCell ref="O9"/>
+    <mergeCell ref="S17"/>
+    <mergeCell ref="S11"/>
+    <mergeCell ref="H21"/>
+    <mergeCell ref="P8"/>
+    <mergeCell ref="I22"/>
+    <mergeCell ref="R74"/>
+    <mergeCell ref="L54"/>
+    <mergeCell ref="H16"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="L56"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="I38"/>
+    <mergeCell ref="L49"/>
+    <mergeCell ref="I40"/>
+    <mergeCell ref="S72"/>
+    <mergeCell ref="H67"/>
+    <mergeCell ref="P29"/>
+    <mergeCell ref="G8"/>
+    <mergeCell ref="J9"/>
+    <mergeCell ref="P31"/>
+    <mergeCell ref="R6"/>
+    <mergeCell ref="T62"/>
+    <mergeCell ref="G10"/>
+    <mergeCell ref="I66"/>
+    <mergeCell ref="G3"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="T64"/>
+    <mergeCell ref="I68"/>
+    <mergeCell ref="F23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G5"/>
+    <mergeCell ref="I67"/>
+    <mergeCell ref="Q27"/>
+    <mergeCell ref="F58"/>
+    <mergeCell ref="F52"/>
+    <mergeCell ref="R18"/>
+    <mergeCell ref="F60"/>
+    <mergeCell ref="P42"/>
+    <mergeCell ref="F53"/>
+    <mergeCell ref="G21"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="J57"/>
+    <mergeCell ref="R19"/>
+    <mergeCell ref="G23"/>
+    <mergeCell ref="Q55"/>
+    <mergeCell ref="Q38"/>
+    <mergeCell ref="F42"/>
+    <mergeCell ref="K56"/>
+    <mergeCell ref="N39"/>
+    <mergeCell ref="Q40"/>
+    <mergeCell ref="X51:X58"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="H12"/>
+    <mergeCell ref="R72"/>
+    <mergeCell ref="O8"/>
+    <mergeCell ref="O2"/>
+    <mergeCell ref="H48"/>
+    <mergeCell ref="H14"/>
+    <mergeCell ref="I9"/>
+    <mergeCell ref="Q66"/>
+    <mergeCell ref="H43"/>
+    <mergeCell ref="F10"/>
+    <mergeCell ref="I11"/>
+    <mergeCell ref="Q68"/>
+    <mergeCell ref="N50"/>
+    <mergeCell ref="R63"/>
+    <mergeCell ref="H74"/>
+    <mergeCell ref="E29"/>
+    <mergeCell ref="H68"/>
+    <mergeCell ref="F5"/>
+    <mergeCell ref="P27"/>
+    <mergeCell ref="A67:B74"/>
+    <mergeCell ref="E31"/>
+    <mergeCell ref="O46"/>
+    <mergeCell ref="O21"/>
+    <mergeCell ref="V36"/>
+    <mergeCell ref="E26"/>
+    <mergeCell ref="O48"/>
+    <mergeCell ref="S54"/>
+    <mergeCell ref="I65"/>
+    <mergeCell ref="P55"/>
+    <mergeCell ref="S56"/>
+    <mergeCell ref="P38"/>
+    <mergeCell ref="W34"/>
     <mergeCell ref="E42"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E35"/>
+    <mergeCell ref="G17"/>
+    <mergeCell ref="P40"/>
+    <mergeCell ref="M39"/>
+    <mergeCell ref="W36"/>
+    <mergeCell ref="V64"/>
+    <mergeCell ref="W30"/>
     <mergeCell ref="E44"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E19"/>
-    <mergeCell ref="E28"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A43:B50"/>
-    <mergeCell ref="E60"/>
-    <mergeCell ref="E9"/>
-    <mergeCell ref="E69"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A51:B58"/>
-    <mergeCell ref="E59"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E11"/>
-    <mergeCell ref="E46"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E61"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E54"/>
-    <mergeCell ref="E32"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E56"/>
-    <mergeCell ref="E71"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E24"/>
-    <mergeCell ref="E8"/>
-    <mergeCell ref="E17"/>
-    <mergeCell ref="F35:F42"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E73"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="A19:B26"/>
-    <mergeCell ref="E63"/>
-    <mergeCell ref="E10"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E65"/>
-    <mergeCell ref="E34"/>
-    <mergeCell ref="F67:F74"/>
-    <mergeCell ref="E74"/>
-    <mergeCell ref="A59:B66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E49"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F51"/>
+    <mergeCell ref="G19"/>
+    <mergeCell ref="N8"/>
+    <mergeCell ref="M28"/>
+    <mergeCell ref="G14"/>
+    <mergeCell ref="N10"/>
+    <mergeCell ref="P66"/>
+    <mergeCell ref="F67"/>
+    <mergeCell ref="M57"/>
+    <mergeCell ref="M29"/>
+    <mergeCell ref="P68"/>
+    <mergeCell ref="M23"/>
+    <mergeCell ref="M58"/>
+    <mergeCell ref="W49"/>
+    <mergeCell ref="O6"/>
+    <mergeCell ref="Q62"/>
+    <mergeCell ref="Q64"/>
+    <mergeCell ref="F59"/>
+    <mergeCell ref="N46"/>
+    <mergeCell ref="N21"/>
+    <mergeCell ref="N48"/>
+    <mergeCell ref="N23"/>
+    <mergeCell ref="X35:X42"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="R54"/>
     <mergeCell ref="E2"/>
     <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E36"/>
-    <mergeCell ref="E45"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="M42"/>
+    <mergeCell ref="H65"/>
+    <mergeCell ref="O17"/>
+    <mergeCell ref="R56"/>
+    <mergeCell ref="O11"/>
+    <mergeCell ref="U39"/>
+    <mergeCell ref="V7"/>
+    <mergeCell ref="X59:X66"/>
+    <mergeCell ref="E22"/>
+    <mergeCell ref="N74"/>
+    <mergeCell ref="V2"/>
+    <mergeCell ref="F19"/>
+    <mergeCell ref="J59"/>
+    <mergeCell ref="P9"/>
+    <mergeCell ref="F20"/>
+    <mergeCell ref="H49"/>
+    <mergeCell ref="M10"/>
+    <mergeCell ref="P11"/>
+    <mergeCell ref="W32"/>
+    <mergeCell ref="L30"/>
+    <mergeCell ref="O74"/>
+    <mergeCell ref="L29"/>
+    <mergeCell ref="W27"/>
+    <mergeCell ref="L31"/>
+    <mergeCell ref="N6"/>
+    <mergeCell ref="P62"/>
+    <mergeCell ref="V46"/>
+    <mergeCell ref="E66"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="P64"/>
+    <mergeCell ref="T15"/>
+    <mergeCell ref="E68"/>
+    <mergeCell ref="I46"/>
+    <mergeCell ref="E67"/>
+    <mergeCell ref="M48"/>
+    <mergeCell ref="W45"/>
+    <mergeCell ref="W55"/>
+    <mergeCell ref="T10"/>
+    <mergeCell ref="W47"/>
+    <mergeCell ref="L42"/>
+    <mergeCell ref="N17"/>
+    <mergeCell ref="V74"/>
+    <mergeCell ref="U13"/>
+    <mergeCell ref="F66"/>
+    <mergeCell ref="U7"/>
+    <mergeCell ref="J11"/>
+    <mergeCell ref="N19"/>
+    <mergeCell ref="W71"/>
+    <mergeCell ref="M38"/>
+    <mergeCell ref="T34"/>
+    <mergeCell ref="W73"/>
+    <mergeCell ref="T28"/>
+    <mergeCell ref="I59"/>
+    <mergeCell ref="J39"/>
+    <mergeCell ref="K34"/>
+    <mergeCell ref="T30"/>
+    <mergeCell ref="T57"/>
+    <mergeCell ref="T29"/>
+    <mergeCell ref="K36"/>
+    <mergeCell ref="N37"/>
+    <mergeCell ref="K29"/>
+    <mergeCell ref="T54"/>
+    <mergeCell ref="E9"/>
+    <mergeCell ref="K31"/>
+    <mergeCell ref="U53"/>
+    <mergeCell ref="M6"/>
+    <mergeCell ref="E11"/>
+    <mergeCell ref="O64"/>
+    <mergeCell ref="V16"/>
+    <mergeCell ref="O72"/>
+    <mergeCell ref="L27"/>
+    <mergeCell ref="V18"/>
+    <mergeCell ref="K49"/>
+    <mergeCell ref="V17"/>
+    <mergeCell ref="V55"/>
+    <mergeCell ref="U74"/>
+    <mergeCell ref="O54"/>
+    <mergeCell ref="V44"/>
+    <mergeCell ref="E65"/>
+    <mergeCell ref="L55"/>
+    <mergeCell ref="L38"/>
+    <mergeCell ref="S34"/>
+    <mergeCell ref="V45"/>
+    <mergeCell ref="F56"/>
+    <mergeCell ref="I39"/>
+    <mergeCell ref="L40"/>
+    <mergeCell ref="S36"/>
+    <mergeCell ref="S30"/>
+    <mergeCell ref="U5"/>
+    <mergeCell ref="W67"/>
+    <mergeCell ref="S29"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F57"/>
+    <mergeCell ref="J8"/>
+    <mergeCell ref="W69"/>
+    <mergeCell ref="S31"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="U6"/>
+    <mergeCell ref="J10"/>
+    <mergeCell ref="L66"/>
+    <mergeCell ref="T53"/>
+    <mergeCell ref="I57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="W64"/>
+    <mergeCell ref="L68"/>
+    <mergeCell ref="T55"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="I58"/>
+    <mergeCell ref="S49"/>
+    <mergeCell ref="K27"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="U24"/>
+    <mergeCell ref="U18"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J21"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="U19"/>
+    <mergeCell ref="J48"/>
+    <mergeCell ref="J23"/>
+    <mergeCell ref="N54"/>
+    <mergeCell ref="T38"/>
+    <mergeCell ref="K55"/>
+    <mergeCell ref="N56"/>
+    <mergeCell ref="Q39"/>
+    <mergeCell ref="R7"/>
+    <mergeCell ref="R34"/>
+    <mergeCell ref="T63"/>
+    <mergeCell ref="G38"/>
+    <mergeCell ref="K46"/>
+    <mergeCell ref="J74"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="T71"/>
+    <mergeCell ref="R36"/>
+    <mergeCell ref="U37"/>
+    <mergeCell ref="U72"/>
+    <mergeCell ref="U47"/>
+    <mergeCell ref="K71"/>
+    <mergeCell ref="I8"/>
+    <mergeCell ref="L9"/>
+    <mergeCell ref="T66"/>
+    <mergeCell ref="K73"/>
+    <mergeCell ref="T6"/>
+    <mergeCell ref="I10"/>
+    <mergeCell ref="L11"/>
+    <mergeCell ref="K66"/>
+    <mergeCell ref="U63"/>
+    <mergeCell ref="H30"/>
+    <mergeCell ref="K74"/>
+    <mergeCell ref="H29"/>
+    <mergeCell ref="K68"/>
+    <mergeCell ref="O19"/>
+    <mergeCell ref="S27"/>
+    <mergeCell ref="H31"/>
+    <mergeCell ref="H58"/>
+    <mergeCell ref="R49"/>
+    <mergeCell ref="J6"/>
+    <mergeCell ref="V59"/>
+    <mergeCell ref="H60"/>
+    <mergeCell ref="I28"/>
+    <mergeCell ref="L64"/>
+    <mergeCell ref="T26"/>
+    <mergeCell ref="I21"/>
+    <mergeCell ref="E46"/>
+    <mergeCell ref="S53"/>
+    <mergeCell ref="V54"/>
+    <mergeCell ref="I48"/>
+    <mergeCell ref="I23"/>
+    <mergeCell ref="S45"/>
+    <mergeCell ref="S55"/>
+    <mergeCell ref="H42"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="J17"/>
+    <mergeCell ref="M56"/>
+    <mergeCell ref="Q13"/>
+    <mergeCell ref="Q7"/>
+    <mergeCell ref="F11"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="S71"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="Q8"/>
+    <mergeCell ref="S73"/>
+    <mergeCell ref="Q10"/>
+    <mergeCell ref="S66"/>
+    <mergeCell ref="G34"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="R32"/>
+    <mergeCell ref="S68"/>
+    <mergeCell ref="J47"/>
+    <mergeCell ref="G29"/>
     <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F11:F18"/>
-    <mergeCell ref="E22"/>
-    <mergeCell ref="E37"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E12"/>
-    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="G31"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="U59"/>
+    <mergeCell ref="Q21"/>
+    <mergeCell ref="K64"/>
+    <mergeCell ref="U61"/>
+    <mergeCell ref="K72"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="R45"/>
+    <mergeCell ref="G49"/>
+    <mergeCell ref="R55"/>
+    <mergeCell ref="U56"/>
+    <mergeCell ref="R47"/>
+    <mergeCell ref="I17"/>
+    <mergeCell ref="Q74"/>
+    <mergeCell ref="P13"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="P15"/>
+    <mergeCell ref="R71"/>
+    <mergeCell ref="S51"/>
+    <mergeCell ref="O34"/>
+    <mergeCell ref="R73"/>
+    <mergeCell ref="O28"/>
+    <mergeCell ref="P10"/>
+    <mergeCell ref="E39"/>
+    <mergeCell ref="H40"/>
+    <mergeCell ref="F7"/>
+    <mergeCell ref="O36"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="O30"/>
+    <mergeCell ref="O29"/>
+    <mergeCell ref="F36"/>
+    <mergeCell ref="O65"/>
+    <mergeCell ref="F8"/>
+    <mergeCell ref="F2"/>
+    <mergeCell ref="O31"/>
+    <mergeCell ref="Q6"/>
+    <mergeCell ref="H66"/>
+    <mergeCell ref="F31"/>
+    <mergeCell ref="O62"/>
+    <mergeCell ref="P28"/>
+    <mergeCell ref="O56"/>
+    <mergeCell ref="E57"/>
+    <mergeCell ref="S64"/>
+    <mergeCell ref="F39"/>
+    <mergeCell ref="P30"/>
+    <mergeCell ref="I63"/>
+    <mergeCell ref="L46"/>
+    <mergeCell ref="V37"/>
+    <mergeCell ref="R5"/>
+    <mergeCell ref="E58"/>
+    <mergeCell ref="F64"/>
+    <mergeCell ref="J72"/>
+    <mergeCell ref="G2"/>
+    <mergeCell ref="Q24"/>
+    <mergeCell ref="M9"/>
+    <mergeCell ref="F21"/>
+    <mergeCell ref="Q19"/>
+    <mergeCell ref="F50"/>
+    <mergeCell ref="W62"/>
+    <mergeCell ref="J54"/>
+    <mergeCell ref="Q44"/>
+    <mergeCell ref="H27"/>
+    <mergeCell ref="G55"/>
+    <mergeCell ref="J56"/>
+    <mergeCell ref="N34"/>
+    <mergeCell ref="Q45"/>
+    <mergeCell ref="G46"/>
+    <mergeCell ref="G40"/>
+    <mergeCell ref="N36"/>
+    <mergeCell ref="U26"/>
+    <mergeCell ref="Q47"/>
+    <mergeCell ref="G71"/>
+    <mergeCell ref="T45"/>
+    <mergeCell ref="E8"/>
+    <mergeCell ref="H9"/>
+    <mergeCell ref="V20"/>
+    <mergeCell ref="A19:B26"/>
+    <mergeCell ref="P6"/>
+    <mergeCell ref="E10"/>
+    <mergeCell ref="G66"/>
+    <mergeCell ref="Q63"/>
+    <mergeCell ref="G74"/>
+    <mergeCell ref="V15"/>
+    <mergeCell ref="G68"/>
+    <mergeCell ref="O55"/>
+    <mergeCell ref="V51"/>
+    <mergeCell ref="O27"/>
+    <mergeCell ref="P24"/>
+    <mergeCell ref="W14"/>
+    <mergeCell ref="W13"/>
+    <mergeCell ref="P26"/>
     <mergeCell ref="E21"/>
-    <mergeCell ref="A27:B34"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="F59:F66"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E62"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E14"/>
-    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="V33"/>
+    <mergeCell ref="O53"/>
+    <mergeCell ref="W15"/>
     <mergeCell ref="E23"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="V35"/>
+    <mergeCell ref="I54"/>
+    <mergeCell ref="V34"/>
+    <mergeCell ref="V28"/>
+    <mergeCell ref="I56"/>
+    <mergeCell ref="M13"/>
+    <mergeCell ref="L39"/>
+    <mergeCell ref="M7"/>
+    <mergeCell ref="V30"/>
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="F46"/>
+    <mergeCell ref="O71"/>
+    <mergeCell ref="M36"/>
+    <mergeCell ref="P37"/>
+    <mergeCell ref="M8"/>
+    <mergeCell ref="P47"/>
+    <mergeCell ref="F48"/>
+    <mergeCell ref="L72"/>
+    <mergeCell ref="O73"/>
+    <mergeCell ref="G9"/>
+    <mergeCell ref="O66"/>
+    <mergeCell ref="W53"/>
+    <mergeCell ref="W28"/>
+    <mergeCell ref="F73"/>
+    <mergeCell ref="S47"/>
+    <mergeCell ref="G11"/>
+    <mergeCell ref="O68"/>
+    <mergeCell ref="N7"/>
+    <mergeCell ref="X19:X26"/>
+    <mergeCell ref="P63"/>
+    <mergeCell ref="F74"/>
+    <mergeCell ref="Q72"/>
+    <mergeCell ref="N2"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="J27"/>
+    <mergeCell ref="M21"/>
+    <mergeCell ref="N60"/>
+    <mergeCell ref="U35"/>
+    <mergeCell ref="N55"/>
+    <mergeCell ref="Q56"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="U34"/>
+    <mergeCell ref="N47"/>
+    <mergeCell ref="L13"/>
+    <mergeCell ref="U36"/>
+    <mergeCell ref="S3"/>
+    <mergeCell ref="V4"/>
+    <mergeCell ref="U30"/>
+    <mergeCell ref="H64"/>
+    <mergeCell ref="E19"/>
+    <mergeCell ref="L15"/>
+    <mergeCell ref="N71"/>
+    <mergeCell ref="L8"/>
+    <mergeCell ref="N73"/>
+    <mergeCell ref="L10"/>
+    <mergeCell ref="V32"/>
+    <mergeCell ref="V26"/>
+    <mergeCell ref="R53"/>
+    <mergeCell ref="U54"/>
+    <mergeCell ref="V57"/>
+    <mergeCell ref="K65"/>
+    <mergeCell ref="E47"/>
+    <mergeCell ref="S16"/>
+    <mergeCell ref="V58"/>
+    <mergeCell ref="W24"/>
+    <mergeCell ref="V52"/>
+    <mergeCell ref="L28"/>
+    <mergeCell ref="S18"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="W26"/>
+    <mergeCell ref="E63"/>
+    <mergeCell ref="H46"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="R37"/>
+    <mergeCell ref="N5"/>
+    <mergeCell ref="L23"/>
+    <mergeCell ref="T12"/>
+    <mergeCell ref="F72"/>
+    <mergeCell ref="M45"/>
+    <mergeCell ref="T41"/>
+    <mergeCell ref="W42"/>
+    <mergeCell ref="V70"/>
+    <mergeCell ref="M17"/>
+    <mergeCell ref="T13"/>
+    <mergeCell ref="W52"/>
+    <mergeCell ref="T7"/>
+    <mergeCell ref="M47"/>
+    <mergeCell ref="T43"/>
+    <mergeCell ref="M19"/>
+    <mergeCell ref="K13"/>
+    <mergeCell ref="V71"/>
+    <mergeCell ref="T36"/>
+    <mergeCell ref="W37"/>
+    <mergeCell ref="U4"/>
+    <mergeCell ref="N16"/>
+    <mergeCell ref="K15"/>
+    <mergeCell ref="M44"/>
+    <mergeCell ref="V73"/>
+    <mergeCell ref="N51"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="F51:F58"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E64"/>
-    <mergeCell ref="E51"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="A35:B42"/>
-    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="J34"/>
+    <mergeCell ref="M73"/>
+    <mergeCell ref="T25"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F43:F50"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F27:F34"/>
+    <mergeCell ref="U32"/>
+    <mergeCell ref="W63"/>
+    <mergeCell ref="J36"/>
+    <mergeCell ref="Q26"/>
+    <mergeCell ref="M74"/>
+    <mergeCell ref="J31"/>
+    <mergeCell ref="L6"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="J62"/>
+    <mergeCell ref="K28"/>
+    <mergeCell ref="M63"/>
+    <mergeCell ref="U60"/>
+    <mergeCell ref="J64"/>
+    <mergeCell ref="K30"/>
+    <mergeCell ref="Q37"/>
+    <mergeCell ref="M5"/>
+    <mergeCell ref="U45"/>
+    <mergeCell ref="G48"/>
+    <mergeCell ref="S14"/>
+    <mergeCell ref="S13"/>
+    <mergeCell ref="H17"/>
+    <mergeCell ref="H11"/>
+    <mergeCell ref="S15"/>
+    <mergeCell ref="U71"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="R62"/>
+    <mergeCell ref="U73"/>
+    <mergeCell ref="I34"/>
+    <mergeCell ref="S25"/>
+    <mergeCell ref="T32"/>
+    <mergeCell ref="I36"/>
+    <mergeCell ref="L47"/>
+    <mergeCell ref="V69"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="S28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="U3"/>
+    <mergeCell ref="W59"/>
+    <mergeCell ref="J7"/>
+    <mergeCell ref="I62"/>
+    <mergeCell ref="Q22"/>
+    <mergeCell ref="L63"/>
+    <mergeCell ref="T60"/>
+    <mergeCell ref="W61"/>
+    <mergeCell ref="I64"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="M72"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="T18"/>
+    <mergeCell ref="P45"/>
+    <mergeCell ref="T49"/>
+    <mergeCell ref="R13"/>
+    <mergeCell ref="K26"/>
+    <mergeCell ref="T42"/>
+    <mergeCell ref="J60"/>
+    <mergeCell ref="J53"/>
+    <mergeCell ref="M54"/>
+    <mergeCell ref="T50"/>
+    <mergeCell ref="R15"/>
+    <mergeCell ref="U16"/>
+    <mergeCell ref="T44"/>
+    <mergeCell ref="Q35"/>
+    <mergeCell ref="J55"/>
+    <mergeCell ref="Q34"/>
+    <mergeCell ref="T73"/>
+    <mergeCell ref="F38"/>
+    <mergeCell ref="H13"/>
+    <mergeCell ref="Q36"/>
+    <mergeCell ref="Q30"/>
+    <mergeCell ref="S5"/>
+    <mergeCell ref="U67"/>
+    <mergeCell ref="H15"/>
+    <mergeCell ref="J71"/>
+    <mergeCell ref="K37"/>
+    <mergeCell ref="R33"/>
+    <mergeCell ref="H8"/>
+    <mergeCell ref="U69"/>
+    <mergeCell ref="G72"/>
+    <mergeCell ref="J73"/>
+    <mergeCell ref="H10"/>
+    <mergeCell ref="R28"/>
+    <mergeCell ref="H25"/>
+    <mergeCell ref="N53"/>
+    <mergeCell ref="Q54"/>
+    <mergeCell ref="H39"/>
+    <mergeCell ref="J68"/>
+    <mergeCell ref="I7"/>
+    <mergeCell ref="R30"/>
+    <mergeCell ref="A35:B42"/>
+    <mergeCell ref="K63"/>
+    <mergeCell ref="O16"/>
+    <mergeCell ref="S24"/>
     <mergeCell ref="E27"/>
+    <mergeCell ref="H28"/>
+    <mergeCell ref="I60"/>
+    <mergeCell ref="H23"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="H54"/>
+    <mergeCell ref="P41"/>
+    <mergeCell ref="S52"/>
+    <mergeCell ref="P34"/>
+    <mergeCell ref="H56"/>
+    <mergeCell ref="E38"/>
+    <mergeCell ref="G13"/>
+    <mergeCell ref="P36"/>
+    <mergeCell ref="S37"/>
+    <mergeCell ref="Q4"/>
+    <mergeCell ref="E40"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="G15"/>
+    <mergeCell ref="T69"/>
+    <mergeCell ref="I73"/>
+    <mergeCell ref="F9"/>
+    <mergeCell ref="M24"/>
+    <mergeCell ref="V53"/>
+    <mergeCell ref="S63"/>
+    <mergeCell ref="M53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="P54"/>
+    <mergeCell ref="I74"/>
+    <mergeCell ref="W44"/>
+    <mergeCell ref="F65"/>
+    <mergeCell ref="M55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="H6"/>
+    <mergeCell ref="Q58"/>
+    <mergeCell ref="R24"/>
+    <mergeCell ref="G28"/>
+    <mergeCell ref="N18"/>
+    <mergeCell ref="Q60"/>
+    <mergeCell ref="R26"/>
+    <mergeCell ref="G30"/>
+    <mergeCell ref="K8"/>
+    <mergeCell ref="M37"/>
+    <mergeCell ref="O12"/>
+    <mergeCell ref="G54"/>
+    <mergeCell ref="O14"/>
+    <mergeCell ref="K62"/>
+    <mergeCell ref="O13"/>
+    <mergeCell ref="R52"/>
+    <mergeCell ref="H53"/>
+    <mergeCell ref="O7"/>
+    <mergeCell ref="V3"/>
+    <mergeCell ref="G56"/>
+    <mergeCell ref="O15"/>
+    <mergeCell ref="H55"/>
+    <mergeCell ref="Q71"/>
+    <mergeCell ref="V5"/>
+    <mergeCell ref="F15"/>
+    <mergeCell ref="N72"/>
+    <mergeCell ref="Q73"/>
+    <mergeCell ref="H52"/>
+    <mergeCell ref="I18"/>
+    <mergeCell ref="E34"/>
+    <mergeCell ref="O69"/>
+    <mergeCell ref="R70"/>
+    <mergeCell ref="O25"/>
+    <mergeCell ref="H45"/>
+    <mergeCell ref="P32"/>
+    <mergeCell ref="P7"/>
+    <mergeCell ref="E36"/>
+    <mergeCell ref="H47"/>
+    <mergeCell ref="V43"/>
+    <mergeCell ref="Q3"/>
+    <mergeCell ref="S59"/>
+    <mergeCell ref="F34"/>
+    <mergeCell ref="E62"/>
+    <mergeCell ref="H63"/>
+    <mergeCell ref="P25"/>
+    <mergeCell ref="P60"/>
+    <mergeCell ref="S61"/>
+    <mergeCell ref="E64"/>
+    <mergeCell ref="F30"/>
+    <mergeCell ref="M51"/>
+    <mergeCell ref="I72"/>
+    <mergeCell ref="W41"/>
+    <mergeCell ref="L45"/>
+    <mergeCell ref="W43"/>
+    <mergeCell ref="N13"/>
+    <mergeCell ref="N15"/>
+    <mergeCell ref="X27:X34"/>
+    <mergeCell ref="P71"/>
+    <mergeCell ref="A3:B10"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="M34"/>
+    <mergeCell ref="P73"/>
+    <mergeCell ref="T24"/>
+    <mergeCell ref="W25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="K32"/>
+    <mergeCell ref="N33"/>
+    <mergeCell ref="N28"/>
+    <mergeCell ref="P3"/>
+    <mergeCell ref="E7"/>
+    <mergeCell ref="N30"/>
+    <mergeCell ref="G63"/>
+    <mergeCell ref="U51"/>
+    <mergeCell ref="J46"/>
+    <mergeCell ref="T37"/>
+    <mergeCell ref="P5"/>
+    <mergeCell ref="R61"/>
+    <mergeCell ref="V12"/>
+    <mergeCell ref="K16"/>
+    <mergeCell ref="O24"/>
+    <mergeCell ref="V14"/>
+    <mergeCell ref="K9"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="V13"/>
+    <mergeCell ref="M20"/>
+    <mergeCell ref="O49"/>
+    <mergeCell ref="K11"/>
+    <mergeCell ref="K47"/>
+    <mergeCell ref="E60"/>
+    <mergeCell ref="M22"/>
+    <mergeCell ref="O50"/>
+    <mergeCell ref="M15"/>
+    <mergeCell ref="P16"/>
+    <mergeCell ref="W12"/>
+    <mergeCell ref="L41"/>
+    <mergeCell ref="F27"/>
+    <mergeCell ref="O52"/>
+    <mergeCell ref="P18"/>
+    <mergeCell ref="L34"/>
+    <mergeCell ref="V25"/>
+    <mergeCell ref="L36"/>
+    <mergeCell ref="O37"/>
+    <mergeCell ref="M4"/>
+    <mergeCell ref="S32"/>
+    <mergeCell ref="S26"/>
+    <mergeCell ref="E71"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="L67"/>
+    <mergeCell ref="P44"/>
+    <mergeCell ref="W65"/>
+    <mergeCell ref="E73"/>
+    <mergeCell ref="M35"/>
+    <mergeCell ref="F55"/>
+    <mergeCell ref="L62"/>
+    <mergeCell ref="O63"/>
+    <mergeCell ref="F70"/>
+    <mergeCell ref="I53"/>
+    <mergeCell ref="E74"/>
+    <mergeCell ref="M30"/>
+    <mergeCell ref="T51"/>
+    <mergeCell ref="I55"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F71"/>
+    <mergeCell ref="M61"/>
+    <mergeCell ref="F37"/>
+    <mergeCell ref="N24"/>
+    <mergeCell ref="U20"/>
+    <mergeCell ref="X11:X18"/>
+    <mergeCell ref="U14"/>
+    <mergeCell ref="J18"/>
+    <mergeCell ref="T67"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="N26"/>
+    <mergeCell ref="U22"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="T33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="U15"/>
+    <mergeCell ref="F68"/>
+    <mergeCell ref="T35"/>
+    <mergeCell ref="K41"/>
+    <mergeCell ref="G62"/>
+    <mergeCell ref="N52"/>
+    <mergeCell ref="K43"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="A11:B18"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="U33"/>
+    <mergeCell ref="T61"/>
+    <mergeCell ref="W8"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E25"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="F19:F26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E66"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A3:B10"/>
+    <mergeCell ref="V65"/>
+    <mergeCell ref="K69"/>
+    <mergeCell ref="N70"/>
+    <mergeCell ref="K25"/>
+    <mergeCell ref="Q53"/>
+    <mergeCell ref="L7"/>
+    <mergeCell ref="N63"/>
+    <mergeCell ref="K54"/>
+    <mergeCell ref="W5"/>
+    <mergeCell ref="R16"/>
+    <mergeCell ref="V24"/>
+    <mergeCell ref="L58"/>
+    <mergeCell ref="W21"/>
+    <mergeCell ref="V49"/>
+    <mergeCell ref="I24"/>
+    <mergeCell ref="L25"/>
+    <mergeCell ref="L60"/>
+    <mergeCell ref="M26"/>
+    <mergeCell ref="T22"/>
+    <mergeCell ref="I51"/>
+    <mergeCell ref="E72"/>
+    <mergeCell ref="V50"/>
+    <mergeCell ref="S41"/>
+    <mergeCell ref="J14"/>
+    <mergeCell ref="S43"/>
+    <mergeCell ref="H38"/>
+    <mergeCell ref="J13"/>
+    <mergeCell ref="M52"/>
+    <mergeCell ref="T4"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="J15"/>
+    <mergeCell ref="L71"/>
+    <mergeCell ref="Q5"/>
+    <mergeCell ref="S67"/>
+    <mergeCell ref="G6"/>
+    <mergeCell ref="I37"/>
+    <mergeCell ref="L73"/>
+    <mergeCell ref="K12"/>
+    <mergeCell ref="S69"/>
+    <mergeCell ref="K14"/>
+    <mergeCell ref="P53"/>
+    <mergeCell ref="K7"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="G32"/>
+    <mergeCell ref="J33"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="M71"/>
+    <mergeCell ref="Q16"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G27"/>
+    <mergeCell ref="J28"/>
+    <mergeCell ref="Q18"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="J30"/>
+    <mergeCell ref="Q51"/>
+    <mergeCell ref="L5"/>
+    <mergeCell ref="U57"/>
+    <mergeCell ref="R12"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="R41"/>
+    <mergeCell ref="U42"/>
+    <mergeCell ref="T70"/>
+    <mergeCell ref="S9"/>
+    <mergeCell ref="G45"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="U52"/>
+    <mergeCell ref="K53"/>
+    <mergeCell ref="I20"/>
+    <mergeCell ref="R43"/>
+    <mergeCell ref="G47"/>
+    <mergeCell ref="I13"/>
+    <mergeCell ref="S4"/>
+    <mergeCell ref="I15"/>
+    <mergeCell ref="L16"/>
+    <mergeCell ref="S12"/>
+    <mergeCell ref="R67"/>
+    <mergeCell ref="H41"/>
+    <mergeCell ref="F6"/>
+    <mergeCell ref="V48"/>
+    <mergeCell ref="R59"/>
+    <mergeCell ref="H34"/>
+    <mergeCell ref="R69"/>
+    <mergeCell ref="U70"/>
+    <mergeCell ref="R25"/>
+    <mergeCell ref="S7"/>
+    <mergeCell ref="H36"/>
+    <mergeCell ref="O32"/>
+    <mergeCell ref="O26"/>
+    <mergeCell ref="I33"/>
+    <mergeCell ref="L44"/>
+    <mergeCell ref="S65"/>
+    <mergeCell ref="T31"/>
+    <mergeCell ref="I35"/>
+    <mergeCell ref="H62"/>
     <mergeCell ref="E53"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="K3"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E50"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E68"/>
+    <mergeCell ref="S60"/>
+    <mergeCell ref="V61"/>
+    <mergeCell ref="I30"/>
+    <mergeCell ref="P51"/>
     <mergeCell ref="E55"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="M67"/>
+    <mergeCell ref="E48"/>
+    <mergeCell ref="I61"/>
+    <mergeCell ref="O45"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="M69"/>
+    <mergeCell ref="Q20"/>
+    <mergeCell ref="Q14"/>
+    <mergeCell ref="F18"/>
+    <mergeCell ref="F45"/>
+    <mergeCell ref="P67"/>
+    <mergeCell ref="F17"/>
+    <mergeCell ref="F47"/>
+    <mergeCell ref="Q15"/>
+    <mergeCell ref="H22"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="W58"/>
+    <mergeCell ref="J50"/>
+    <mergeCell ref="G41"/>
+    <mergeCell ref="G16"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="W60"/>
+    <mergeCell ref="J52"/>
+    <mergeCell ref="K18"/>
+    <mergeCell ref="R14"/>
+    <mergeCell ref="G43"/>
+    <mergeCell ref="Q25"/>
+    <mergeCell ref="G36"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="N32"/>
+    <mergeCell ref="Q33"/>
+    <mergeCell ref="K44"/>
+    <mergeCell ref="A43:B50"/>
+    <mergeCell ref="R65"/>
+    <mergeCell ref="G69"/>
+    <mergeCell ref="J70"/>
+    <mergeCell ref="A51:B58"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="H7"/>
+    <mergeCell ref="J63"/>
+    <mergeCell ref="Q59"/>
+    <mergeCell ref="G64"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="Q61"/>
+    <mergeCell ref="N45"/>
+    <mergeCell ref="P20"/>
+    <mergeCell ref="W10"/>
+    <mergeCell ref="E24"/>
+    <mergeCell ref="P22"/>
+    <mergeCell ref="E17"/>
+    <mergeCell ref="V29"/>
+    <mergeCell ref="O41"/>
+    <mergeCell ref="O35"/>
+    <mergeCell ref="W3"/>
+    <mergeCell ref="V31"/>
+    <mergeCell ref="A59:B66"/>
+    <mergeCell ref="O43"/>
+    <mergeCell ref="V60"/>
+    <mergeCell ref="F13"/>
+    <mergeCell ref="I52"/>
+    <mergeCell ref="M3"/>
+    <mergeCell ref="F43"/>
+    <mergeCell ref="H71"/>
+    <mergeCell ref="O67"/>
+    <mergeCell ref="M32"/>
+    <mergeCell ref="P33"/>
+    <mergeCell ref="W29"/>
+    <mergeCell ref="W23"/>
+    <mergeCell ref="E37"/>
+    <mergeCell ref="S44"/>
+    <mergeCell ref="G12"/>
+    <mergeCell ref="P35"/>
+    <mergeCell ref="V42"/>
+    <mergeCell ref="I70"/>
+    <mergeCell ref="L53"/>
+    <mergeCell ref="G7"/>
+    <mergeCell ref="W51"/>
+    <mergeCell ref="P59"/>
+    <mergeCell ref="F33"/>
+    <mergeCell ref="I71"/>
+    <mergeCell ref="P61"/>
+    <mergeCell ref="M16"/>
+    <mergeCell ref="F62"/>
+    <mergeCell ref="F28"/>
+    <mergeCell ref="M18"/>
+    <mergeCell ref="G25"/>
+    <mergeCell ref="G60"/>
+    <mergeCell ref="Q57"/>
+    <mergeCell ref="R23"/>
+    <mergeCell ref="F54"/>
+    <mergeCell ref="N41"/>
+    <mergeCell ref="Q52"/>
+    <mergeCell ref="E20"/>
+    <mergeCell ref="N43"/>
+    <mergeCell ref="E13"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="E15"/>
+    <mergeCell ref="N67"/>
+    <mergeCell ref="V27"/>
+    <mergeCell ref="N59"/>
+    <mergeCell ref="G73"/>
+    <mergeCell ref="N69"/>
+    <mergeCell ref="Q70"/>
+    <mergeCell ref="V22"/>
+    <mergeCell ref="F14"/>
+    <mergeCell ref="U50"/>
+    <mergeCell ref="U44"/>
+    <mergeCell ref="P4"/>
+    <mergeCell ref="E33"/>
+    <mergeCell ref="H44"/>
+    <mergeCell ref="E35"/>
+    <mergeCell ref="W20"/>
+    <mergeCell ref="H73"/>
+    <mergeCell ref="E28"/>
+    <mergeCell ref="L24"/>
+    <mergeCell ref="L18"/>
+    <mergeCell ref="V40"/>
+    <mergeCell ref="W22"/>
+    <mergeCell ref="E30"/>
+    <mergeCell ref="L51"/>
+    <mergeCell ref="L26"/>
+    <mergeCell ref="E59"/>
+    <mergeCell ref="M46"/>
+    <mergeCell ref="P57"/>
+    <mergeCell ref="V41"/>
+    <mergeCell ref="T8"/>
+    <mergeCell ref="W9"/>
+    <mergeCell ref="E61"/>
+    <mergeCell ref="E54"/>
+    <mergeCell ref="M14"/>
+    <mergeCell ref="W38"/>
+    <mergeCell ref="E56"/>
+    <mergeCell ref="T3"/>
+    <mergeCell ref="W4"/>
+    <mergeCell ref="M43"/>
+    <mergeCell ref="N11"/>
+    <mergeCell ref="T39"/>
+    <mergeCell ref="W40"/>
+    <mergeCell ref="V68"/>
+    <mergeCell ref="T5"/>
+    <mergeCell ref="V67"/>
+    <mergeCell ref="W33"/>
+    <mergeCell ref="L37"/>
+    <mergeCell ref="S58"/>
+    <mergeCell ref="N12"/>
+    <mergeCell ref="W35"/>
+    <mergeCell ref="U2"/>
+    <mergeCell ref="G18"/>
+    <mergeCell ref="N14"/>
+    <mergeCell ref="P70"/>
+    <mergeCell ref="M25"/>
+    <mergeCell ref="W66"/>
+    <mergeCell ref="T21"/>
+    <mergeCell ref="J32"/>
+    <mergeCell ref="M33"/>
+    <mergeCell ref="T23"/>
+    <mergeCell ref="T16"/>
+    <mergeCell ref="M62"/>
+    <mergeCell ref="T52"/>
+    <mergeCell ref="G44"/>
+    <mergeCell ref="N65"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="F63"/>
+    <mergeCell ref="M59"/>
+    <mergeCell ref="K24"/>
+    <mergeCell ref="N25"/>
+    <mergeCell ref="U46"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="K51"/>
+    <mergeCell ref="U48"/>
+    <mergeCell ref="P2"/>
+    <mergeCell ref="U41"/>
+    <mergeCell ref="V9"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="H69"/>
+    <mergeCell ref="L20"/>
+    <mergeCell ref="U43"/>
+    <mergeCell ref="S10"/>
+    <mergeCell ref="V11"/>
+    <mergeCell ref="K42"/>
+    <mergeCell ref="L22"/>
+    <mergeCell ref="O60"/>
+    <mergeCell ref="R58"/>
+    <mergeCell ref="E50"/>
+    <mergeCell ref="R60"/>
     <mergeCell ref="E52"/>
-    <mergeCell ref="E67"/>
-    <mergeCell ref="E5"/>
-    <mergeCell ref="E39"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F3:F10"/>
-    <mergeCell ref="E48"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E20"/>
-    <mergeCell ref="E29"/>
-    <mergeCell ref="E38"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E13"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="A67:B74"/>
-    <mergeCell ref="E31"/>
-    <mergeCell ref="E40"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="E15"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I32"/>
+    <mergeCell ref="L33"/>
+    <mergeCell ref="S23"/>
+    <mergeCell ref="O44"/>
+    <mergeCell ref="W31"/>
+    <mergeCell ref="L35"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="R42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/Output-Avaliacao-Membro-RH.xlsx
+++ b/output/Output-Avaliacao-Membro-RH.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -132,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -497,7 +498,7 @@
   </sheetPr>
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -641,7 +642,7 @@
           <t>5. O membro é capaz de executar a sua tarefa de forma eficaz e com qualidade, apresentando espírito crítico, ou seja, questionando e analisando-a de forma racional.</t>
         </is>
       </c>
-      <c r="X2" s="6" t="inlineStr">
+      <c r="X2" s="5" t="inlineStr">
         <is>
           <t>Observações</t>
         </is>
@@ -717,7 +718,7 @@
       <c r="W3" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X3" s="6" t="inlineStr">
+      <c r="X3" s="5" t="inlineStr">
         <is>
           <t>Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais.</t>
         </is>
@@ -1262,7 +1263,7 @@
       <c r="W11" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X11" s="6" t="inlineStr">
+      <c r="X11" s="5" t="inlineStr">
         <is>
           <t>Em relação à minha avaliação: não tenho participado como queria no slack dando o feedback que os meus colegas merecem, mas é uma característica que estou a desenvolver agora que já me sinto mais habituada à dinâmica dos canais</t>
         </is>
@@ -1807,7 +1808,7 @@
       <c r="W19" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X19" s="6" t="inlineStr">
+      <c r="X19" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -2352,7 +2353,7 @@
       <c r="W27" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X27" s="6" t="inlineStr">
+      <c r="X27" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -2897,7 +2898,7 @@
       <c r="W35" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X35" s="6" t="inlineStr">
+      <c r="X35" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -3442,7 +3443,7 @@
       <c r="W43" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X43" s="6" t="inlineStr">
+      <c r="X43" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -3987,7 +3988,7 @@
       <c r="W51" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X51" s="6" t="inlineStr">
+      <c r="X51" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -4532,7 +4533,7 @@
       <c r="W59" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X59" s="6" t="inlineStr">
+      <c r="X59" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -5077,7 +5078,7 @@
       <c r="W67" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="X67" s="6" t="inlineStr">
+      <c r="X67" s="5" t="inlineStr">
         <is>
           <t>Nada a apontar</t>
         </is>
@@ -7036,6 +7037,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="R42"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>